--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_21_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_21_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1024076.001718984</v>
+        <v>-1025681.877249385</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8773452.701649606</v>
+        <v>8773452.701649604</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>234.186577500992</v>
       </c>
       <c r="D11" t="n">
-        <v>90.86467852536835</v>
+        <v>223.5967273506674</v>
       </c>
       <c r="E11" t="n">
-        <v>250.8440558022462</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>275.7897314716959</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>281.4204412852649</v>
       </c>
       <c r="H11" t="n">
-        <v>179.7541375993905</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>14.22031640604285</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>120.0356600810325</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.6659442001194</v>
       </c>
       <c r="W11" t="n">
-        <v>218.1546544473974</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>255.151624386038</v>
+        <v>164.7148040983851</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>35.44686937985182</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>41.62218471830022</v>
       </c>
       <c r="D12" t="n">
-        <v>16.35875129462315</v>
+        <v>16.35875129462323</v>
       </c>
       <c r="E12" t="n">
-        <v>26.55876618538534</v>
+        <v>26.55876618538542</v>
       </c>
       <c r="F12" t="n">
-        <v>13.98289812336827</v>
+        <v>13.98289812336836</v>
       </c>
       <c r="G12" t="n">
-        <v>58.97265995434429</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>97.78740528786001</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>37.89022697185279</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.275709104097416</v>
       </c>
       <c r="S12" t="n">
-        <v>143.8959572312332</v>
+        <v>55.15405516303363</v>
       </c>
       <c r="T12" t="n">
         <v>194.1348704778385</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8429621971285</v>
+        <v>94.75664792711299</v>
       </c>
       <c r="V12" t="n">
         <v>101.7142728794097</v>
       </c>
       <c r="W12" t="n">
-        <v>120.608668890904</v>
+        <v>120.6086688909041</v>
       </c>
       <c r="X12" t="n">
-        <v>74.68667093346187</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>74.59638150728875</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.74566591192169</v>
+        <v>48.74566591192178</v>
       </c>
       <c r="C13" t="n">
-        <v>36.16050682861223</v>
+        <v>36.16050682861231</v>
       </c>
       <c r="D13" t="n">
-        <v>86.94759514548726</v>
+        <v>17.52915874819683</v>
       </c>
       <c r="E13" t="n">
-        <v>15.34764837655356</v>
+        <v>15.34764837655365</v>
       </c>
       <c r="F13" t="n">
-        <v>14.33473375291564</v>
+        <v>14.33473375291572</v>
       </c>
       <c r="G13" t="n">
-        <v>35.65048383636903</v>
+        <v>35.65048383636911</v>
       </c>
       <c r="H13" t="n">
-        <v>19.99004674171035</v>
+        <v>19.99004674171044</v>
       </c>
       <c r="I13" t="n">
-        <v>117.7338241830654</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.688565595031903</v>
+        <v>4.688565595031946</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07332503762844</v>
+        <v>137.3247439931644</v>
       </c>
       <c r="T13" t="n">
-        <v>91.50050071758552</v>
+        <v>91.50050071758561</v>
       </c>
       <c r="U13" t="n">
-        <v>155.1643051999985</v>
+        <v>155.1643051999986</v>
       </c>
       <c r="V13" t="n">
-        <v>121.0513290538124</v>
+        <v>121.0513290538125</v>
       </c>
       <c r="W13" t="n">
-        <v>155.4366840665754</v>
+        <v>155.4366840665755</v>
       </c>
       <c r="X13" t="n">
-        <v>94.62334111902155</v>
+        <v>94.62334111902163</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.49833908207918</v>
+        <v>87.49833908207927</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.8440558022462</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>264.9881063111882</v>
+        <v>3.442797434694939</v>
       </c>
       <c r="G14" t="n">
-        <v>281.4204412852649</v>
+        <v>281.420441285265</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>179.7541375993907</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>14.22031640604298</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>79.7701242648524</v>
       </c>
       <c r="U14" t="n">
-        <v>120.0356600810325</v>
+        <v>120.0356600810327</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>218.1546544473974</v>
+        <v>218.1546544473976</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.6447864084536</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.151624386038</v>
+        <v>255.1516243860382</v>
       </c>
     </row>
     <row r="15">
@@ -1686,22 +1686,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>41.62218471830013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>16.35875129462335</v>
       </c>
       <c r="E15" t="n">
-        <v>26.55876618538534</v>
+        <v>26.55876618538554</v>
       </c>
       <c r="F15" t="n">
-        <v>13.98289812336827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>13.80672387839197</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.78740528786001</v>
       </c>
       <c r="I15" t="n">
         <v>37.8902269718528</v>
@@ -1734,25 +1734,25 @@
         <v>7.27570910409743</v>
       </c>
       <c r="S15" t="n">
-        <v>12.80964296121762</v>
+        <v>12.80964296121782</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1348704778385</v>
+        <v>105.3929684096383</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8429621971285</v>
+        <v>94.75664792711311</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>101.7142728794099</v>
       </c>
       <c r="W15" t="n">
-        <v>120.608668890904</v>
+        <v>120.6086688909042</v>
       </c>
       <c r="X15" t="n">
-        <v>74.68667093346187</v>
+        <v>74.68667093346207</v>
       </c>
       <c r="Y15" t="n">
-        <v>74.59638150728875</v>
+        <v>74.59638150728895</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.74566591192169</v>
+        <v>48.74566591192189</v>
       </c>
       <c r="C16" t="n">
-        <v>92.22645313895212</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>17.52915874819675</v>
+        <v>17.52915874819695</v>
       </c>
       <c r="E16" t="n">
-        <v>15.34764837655356</v>
+        <v>15.34764837655376</v>
       </c>
       <c r="F16" t="n">
-        <v>14.33473375291564</v>
+        <v>70.40068006325299</v>
       </c>
       <c r="G16" t="n">
-        <v>35.65048383636903</v>
+        <v>35.65048383636923</v>
       </c>
       <c r="H16" t="n">
-        <v>19.99004674171035</v>
+        <v>19.99004674171055</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07332503762845</v>
+        <v>71.07332503762865</v>
       </c>
       <c r="T16" t="n">
-        <v>91.50050071758552</v>
+        <v>91.50050071758572</v>
       </c>
       <c r="U16" t="n">
-        <v>155.1643051999985</v>
+        <v>155.1643051999987</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>121.0513290538126</v>
       </c>
       <c r="W16" t="n">
-        <v>155.4366840665754</v>
+        <v>155.4366840665756</v>
       </c>
       <c r="X16" t="n">
-        <v>94.62334111902155</v>
+        <v>94.62334111902175</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.49833908207918</v>
+        <v>87.49833908207938</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>174.5743134769668</v>
       </c>
       <c r="H17" t="n">
-        <v>72.9080097910925</v>
+        <v>72.90800979109245</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.18953227273448</v>
+        <v>13.18953227273446</v>
       </c>
       <c r="V17" t="n">
-        <v>36.67602447780211</v>
+        <v>89.81981639182123</v>
       </c>
       <c r="W17" t="n">
-        <v>111.3085266390994</v>
+        <v>111.3085266390993</v>
       </c>
       <c r="X17" t="n">
-        <v>131.7986586001554</v>
+        <v>78.65486668613737</v>
       </c>
       <c r="Y17" t="n">
         <v>148.3054965777399</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>37.8902269718528</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.27570910409743</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.8959572312332</v>
+        <v>129.0592067114706</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.5924926864819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0323882365364</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>151.076361011726</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>117.7338241830654</v>
       </c>
       <c r="J19" t="n">
         <v>4.68856559503196</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.31817739170047</v>
+        <v>286.2506194700141</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>14.20520124551433</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>110.3163691923411</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>116.7505995423693</v>
       </c>
       <c r="E20" t="n">
-        <v>143.9979279939481</v>
+        <v>90.85413607992975</v>
       </c>
       <c r="F20" t="n">
         <v>168.9436036633978</v>
@@ -2096,7 +2096,7 @@
         <v>174.5743134769668</v>
       </c>
       <c r="H20" t="n">
-        <v>72.9080097910925</v>
+        <v>72.90800979109247</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.18953227273449</v>
+        <v>13.18953227273446</v>
       </c>
       <c r="V20" t="n">
-        <v>89.81981639182126</v>
+        <v>89.81981639182123</v>
       </c>
       <c r="W20" t="n">
-        <v>111.3085266390994</v>
+        <v>111.3085266390993</v>
       </c>
       <c r="X20" t="n">
-        <v>78.6548666861363</v>
+        <v>131.7986586001554</v>
       </c>
       <c r="Y20" t="n">
         <v>148.3054965777399</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>37.8902269718528</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.27570910409743</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>143.8959572312332</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>31.86922864345815</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>6.593705636764336</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>101.1949267500248</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>137.2582766408262</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>117.7338241830654</v>
       </c>
       <c r="J22" t="n">
         <v>4.68856559503196</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.31817739170047</v>
+        <v>48.31817739170044</v>
       </c>
       <c r="V22" t="n">
-        <v>14.20520124551436</v>
+        <v>14.20520124551433</v>
       </c>
       <c r="W22" t="n">
-        <v>48.59055625827736</v>
+        <v>48.59055625827733</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>174.5743134769668</v>
       </c>
       <c r="H23" t="n">
-        <v>72.9080097910925</v>
+        <v>72.90800979109247</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.18953227273449</v>
+        <v>13.18953227273446</v>
       </c>
       <c r="V23" t="n">
-        <v>89.81981639182126</v>
+        <v>89.81981639182123</v>
       </c>
       <c r="W23" t="n">
-        <v>111.3085266390994</v>
+        <v>111.3085266390993</v>
       </c>
       <c r="X23" t="n">
         <v>131.7986586001554</v>
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.27570910409743</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>128.9801323231638</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>242.8816121947964</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.1596393076441</v>
+        <v>193.4312902471732</v>
       </c>
       <c r="T25" t="n">
-        <v>79.70111204437573</v>
+        <v>222.5868149876011</v>
       </c>
       <c r="U25" t="n">
-        <v>48.31817739170047</v>
+        <v>48.31817739170044</v>
       </c>
       <c r="V25" t="n">
-        <v>14.20520124551436</v>
+        <v>14.20520124551433</v>
       </c>
       <c r="W25" t="n">
-        <v>48.59055625827736</v>
+        <v>48.59055625827733</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>275.8877138551826</v>
+        <v>275.8877138551825</v>
       </c>
       <c r="C26" t="n">
-        <v>258.4267639627096</v>
+        <v>258.4267639627095</v>
       </c>
       <c r="D26" t="n">
-        <v>247.836913812385</v>
+        <v>247.8369138123849</v>
       </c>
       <c r="E26" t="n">
-        <v>275.0842422639638</v>
+        <v>275.0842422639637</v>
       </c>
       <c r="F26" t="n">
-        <v>300.0299179334135</v>
+        <v>300.0299179334134</v>
       </c>
       <c r="G26" t="n">
-        <v>305.6606277469825</v>
+        <v>305.6606277469824</v>
       </c>
       <c r="H26" t="n">
-        <v>203.9943240611082</v>
+        <v>203.9943240611081</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.4605028677604</v>
+        <v>38.46050286776033</v>
       </c>
       <c r="T26" t="n">
         <v>104.0103107265698</v>
@@ -2618,7 +2618,7 @@
         <v>242.394840909115</v>
       </c>
       <c r="X26" t="n">
-        <v>262.8849728701711</v>
+        <v>262.884972870171</v>
       </c>
       <c r="Y26" t="n">
         <v>279.3918108477556</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.98585237363932</v>
+        <v>72.98585237363925</v>
       </c>
       <c r="C28" t="n">
-        <v>60.40069329032985</v>
+        <v>60.40069329032978</v>
       </c>
       <c r="D28" t="n">
-        <v>41.76934520991438</v>
+        <v>41.76934520991431</v>
       </c>
       <c r="E28" t="n">
-        <v>39.58783483827119</v>
+        <v>39.58783483827112</v>
       </c>
       <c r="F28" t="n">
-        <v>38.57492021463327</v>
+        <v>38.5749202146332</v>
       </c>
       <c r="G28" t="n">
-        <v>59.89067029808665</v>
+        <v>59.89067029808658</v>
       </c>
       <c r="H28" t="n">
-        <v>44.23023320342799</v>
+        <v>44.23023320342791</v>
       </c>
       <c r="I28" t="n">
-        <v>10.88769637476744</v>
+        <v>10.88769637476737</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>14.05471381652029</v>
+        <v>14.05471381652022</v>
       </c>
       <c r="S28" t="n">
-        <v>95.31351149934608</v>
+        <v>95.31351149934601</v>
       </c>
       <c r="T28" t="n">
-        <v>115.7406871793032</v>
+        <v>115.7406871793031</v>
       </c>
       <c r="U28" t="n">
-        <v>179.4044916617162</v>
+        <v>179.4044916617161</v>
       </c>
       <c r="V28" t="n">
         <v>145.29151551553</v>
@@ -2776,10 +2776,10 @@
         <v>179.676870528293</v>
       </c>
       <c r="X28" t="n">
-        <v>118.8635275807392</v>
+        <v>118.8635275807391</v>
       </c>
       <c r="Y28" t="n">
-        <v>111.7385255437968</v>
+        <v>111.7385255437967</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>275.8877138551826</v>
+        <v>275.8877138551825</v>
       </c>
       <c r="C29" t="n">
-        <v>258.4267639627096</v>
+        <v>258.4267639627094</v>
       </c>
       <c r="D29" t="n">
-        <v>247.836913812385</v>
+        <v>247.8369138123848</v>
       </c>
       <c r="E29" t="n">
-        <v>275.0842422639638</v>
+        <v>275.0842422639637</v>
       </c>
       <c r="F29" t="n">
-        <v>300.0299179334135</v>
+        <v>300.0299179334133</v>
       </c>
       <c r="G29" t="n">
-        <v>305.6606277469825</v>
+        <v>305.6606277469824</v>
       </c>
       <c r="H29" t="n">
-        <v>203.9943240611082</v>
+        <v>203.994324061108</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.4605028677604</v>
+        <v>38.46050286776026</v>
       </c>
       <c r="T29" t="n">
-        <v>104.0103107265698</v>
+        <v>104.0103107265697</v>
       </c>
       <c r="U29" t="n">
-        <v>144.2758465427501</v>
+        <v>144.27584654275</v>
       </c>
       <c r="V29" t="n">
-        <v>220.9061306618369</v>
+        <v>220.9061306618368</v>
       </c>
       <c r="W29" t="n">
-        <v>242.394840909115</v>
+        <v>242.3948409091149</v>
       </c>
       <c r="X29" t="n">
-        <v>262.8849728701711</v>
+        <v>262.8849728701709</v>
       </c>
       <c r="Y29" t="n">
-        <v>279.3918108477556</v>
+        <v>279.3918108477554</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.98585237363932</v>
+        <v>72.98585237363918</v>
       </c>
       <c r="C31" t="n">
-        <v>60.40069329032985</v>
+        <v>60.40069329032971</v>
       </c>
       <c r="D31" t="n">
-        <v>41.76934520991438</v>
+        <v>41.76934520991423</v>
       </c>
       <c r="E31" t="n">
-        <v>39.58783483827119</v>
+        <v>39.58783483827105</v>
       </c>
       <c r="F31" t="n">
-        <v>38.57492021463327</v>
+        <v>38.57492021463312</v>
       </c>
       <c r="G31" t="n">
-        <v>59.89067029808665</v>
+        <v>59.89067029808651</v>
       </c>
       <c r="H31" t="n">
-        <v>44.23023320342799</v>
+        <v>44.23023320342784</v>
       </c>
       <c r="I31" t="n">
-        <v>10.88769637476744</v>
+        <v>10.88769637476729</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>14.05471381652029</v>
+        <v>14.05471381652015</v>
       </c>
       <c r="S31" t="n">
-        <v>95.31351149934608</v>
+        <v>95.31351149934594</v>
       </c>
       <c r="T31" t="n">
-        <v>115.7406871793032</v>
+        <v>115.740687179303</v>
       </c>
       <c r="U31" t="n">
-        <v>179.4044916617162</v>
+        <v>179.404491661716</v>
       </c>
       <c r="V31" t="n">
-        <v>145.29151551553</v>
+        <v>145.2915155155299</v>
       </c>
       <c r="W31" t="n">
-        <v>179.676870528293</v>
+        <v>179.6768705282929</v>
       </c>
       <c r="X31" t="n">
-        <v>118.8635275807392</v>
+        <v>118.863527580739</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.7385255437968</v>
+        <v>111.7385255437967</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>275.8877138551826</v>
+        <v>275.8877138551825</v>
       </c>
       <c r="C32" t="n">
-        <v>258.4267639627096</v>
+        <v>258.4267639627095</v>
       </c>
       <c r="D32" t="n">
-        <v>247.836913812385</v>
+        <v>247.8369138123849</v>
       </c>
       <c r="E32" t="n">
-        <v>275.0842422639638</v>
+        <v>275.0842422639637</v>
       </c>
       <c r="F32" t="n">
-        <v>300.0299179334135</v>
+        <v>300.0299179334133</v>
       </c>
       <c r="G32" t="n">
-        <v>305.6606277469825</v>
+        <v>305.6606277469824</v>
       </c>
       <c r="H32" t="n">
-        <v>203.9943240611082</v>
+        <v>203.9943240611081</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.4605028677604</v>
+        <v>38.46050286776031</v>
       </c>
       <c r="T32" t="n">
-        <v>104.0103107265698</v>
+        <v>104.0103107265697</v>
       </c>
       <c r="U32" t="n">
         <v>144.2758465427501</v>
       </c>
       <c r="V32" t="n">
-        <v>220.9061306618369</v>
+        <v>220.9061306618368</v>
       </c>
       <c r="W32" t="n">
-        <v>242.394840909115</v>
+        <v>242.3948409091149</v>
       </c>
       <c r="X32" t="n">
-        <v>262.8849728701711</v>
+        <v>262.8849728701709</v>
       </c>
       <c r="Y32" t="n">
         <v>279.3918108477556</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.98585237363932</v>
+        <v>72.98585237363923</v>
       </c>
       <c r="C34" t="n">
-        <v>60.40069329032985</v>
+        <v>60.40069329032977</v>
       </c>
       <c r="D34" t="n">
-        <v>41.76934520991438</v>
+        <v>41.76934520991429</v>
       </c>
       <c r="E34" t="n">
-        <v>39.58783483827119</v>
+        <v>39.58783483827111</v>
       </c>
       <c r="F34" t="n">
-        <v>38.57492021463327</v>
+        <v>38.57492021463318</v>
       </c>
       <c r="G34" t="n">
-        <v>59.89067029808665</v>
+        <v>59.89067029808657</v>
       </c>
       <c r="H34" t="n">
-        <v>44.23023320342799</v>
+        <v>44.2302332034279</v>
       </c>
       <c r="I34" t="n">
-        <v>10.88769637476744</v>
+        <v>10.88769637476735</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>14.05471381652029</v>
+        <v>14.05471381652021</v>
       </c>
       <c r="S34" t="n">
-        <v>95.31351149934608</v>
+        <v>95.31351149934599</v>
       </c>
       <c r="T34" t="n">
-        <v>115.7406871793032</v>
+        <v>115.7406871793031</v>
       </c>
       <c r="U34" t="n">
-        <v>179.4044916617162</v>
+        <v>179.4044916617161</v>
       </c>
       <c r="V34" t="n">
-        <v>145.29151551553</v>
+        <v>145.2915155155299</v>
       </c>
       <c r="W34" t="n">
-        <v>179.676870528293</v>
+        <v>179.6768705282929</v>
       </c>
       <c r="X34" t="n">
-        <v>118.8635275807392</v>
+        <v>118.8635275807391</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.7385255437968</v>
+        <v>111.7385255437967</v>
       </c>
     </row>
     <row r="35">
@@ -3348,10 +3348,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>8.416495752300845</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>97.78740528786001</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.27570910409743</v>
+        <v>2.52433460205812</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>194.1348704778385</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8429621971285</v>
@@ -3427,25 +3427,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>88.66046511591793</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>151.076361011726</v>
       </c>
       <c r="I37" t="n">
-        <v>117.7338241830654</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.68856559503196</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>151.4100641622149</v>
       </c>
       <c r="T37" t="n">
         <v>11.73037645273333</v>
       </c>
       <c r="U37" t="n">
-        <v>75.39418093514631</v>
+        <v>286.2506194700141</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>41.2812047889602</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>75.6665598017232</v>
       </c>
       <c r="X37" t="n">
         <v>14.85321685416935</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>171.8774031286128</v>
+        <v>171.8774031286127</v>
       </c>
       <c r="C38" t="n">
         <v>154.4164532361397</v>
       </c>
       <c r="D38" t="n">
-        <v>143.8266030858152</v>
+        <v>143.8266030858151</v>
       </c>
       <c r="E38" t="n">
-        <v>171.073931537394</v>
+        <v>171.0739315373939</v>
       </c>
       <c r="F38" t="n">
         <v>196.0196072068436</v>
@@ -3518,7 +3518,7 @@
         <v>201.6503170204126</v>
       </c>
       <c r="H38" t="n">
-        <v>99.98401333453833</v>
+        <v>99.9840133345383</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>40.26553581618032</v>
+        <v>40.26553581618029</v>
       </c>
       <c r="V38" t="n">
         <v>116.8958199352671</v>
@@ -3588,13 +3588,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.27570910409743</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>122.2791880856062</v>
       </c>
       <c r="U39" t="n">
-        <v>14.98652366226072</v>
+        <v>225.8429621971285</v>
       </c>
       <c r="V39" t="n">
-        <v>120.0986768882712</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3670,19 +3670,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>117.7338241830654</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.68856559503196</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>120.9008416248183</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>202.1596393076441</v>
       </c>
       <c r="T40" t="n">
-        <v>32.30643959954013</v>
+        <v>106.2945625388942</v>
       </c>
       <c r="U40" t="n">
-        <v>75.39418093514631</v>
+        <v>75.39418093514628</v>
       </c>
       <c r="V40" t="n">
-        <v>41.2812047889602</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>75.6665598017232</v>
+        <v>75.66655980172317</v>
       </c>
       <c r="X40" t="n">
-        <v>14.85321685416935</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.728214817226984</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>171.8774031286129</v>
+        <v>171.8774031286127</v>
       </c>
       <c r="C41" t="n">
-        <v>154.4164532361398</v>
+        <v>154.4164532361397</v>
       </c>
       <c r="D41" t="n">
-        <v>143.8266030858152</v>
+        <v>143.8266030858151</v>
       </c>
       <c r="E41" t="n">
-        <v>171.0739315373941</v>
+        <v>171.0739315373939</v>
       </c>
       <c r="F41" t="n">
-        <v>196.0196072068437</v>
+        <v>196.0196072068436</v>
       </c>
       <c r="G41" t="n">
-        <v>201.6503170204127</v>
+        <v>201.6503170204126</v>
       </c>
       <c r="H41" t="n">
-        <v>99.98401333453842</v>
+        <v>99.9840133345383</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>40.2655358161804</v>
+        <v>40.26553581618029</v>
       </c>
       <c r="V41" t="n">
-        <v>116.8958199352672</v>
+        <v>116.8958199352671</v>
       </c>
       <c r="W41" t="n">
-        <v>138.3845301825453</v>
+        <v>138.3845301825452</v>
       </c>
       <c r="X41" t="n">
-        <v>158.8746621436013</v>
+        <v>158.8746621436012</v>
       </c>
       <c r="Y41" t="n">
-        <v>175.3815001211859</v>
+        <v>175.3815001211858</v>
       </c>
     </row>
     <row r="42">
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>97.78740528786001</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>37.8902269718528</v>
@@ -3870,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>23.14562466759084</v>
       </c>
       <c r="U42" t="n">
-        <v>15.35364664811405</v>
+        <v>14.98652366226069</v>
       </c>
       <c r="V42" t="n">
-        <v>21.94414861455755</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7209375806865</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T43" t="n">
-        <v>222.5868149876011</v>
+        <v>24.82479574752684</v>
       </c>
       <c r="U43" t="n">
         <v>286.2506194700141</v>
       </c>
       <c r="V43" t="n">
-        <v>41.28120478896028</v>
+        <v>41.28120478896017</v>
       </c>
       <c r="W43" t="n">
-        <v>75.66655980172328</v>
+        <v>75.66655980172317</v>
       </c>
       <c r="X43" t="n">
-        <v>14.85321685416943</v>
+        <v>14.85321685416932</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.728214817227069</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>171.8774031286129</v>
+        <v>171.8774031286127</v>
       </c>
       <c r="C44" t="n">
-        <v>154.4164532361398</v>
+        <v>154.4164532361397</v>
       </c>
       <c r="D44" t="n">
-        <v>143.8266030858152</v>
+        <v>143.8266030858151</v>
       </c>
       <c r="E44" t="n">
-        <v>171.0739315373941</v>
+        <v>171.0739315373939</v>
       </c>
       <c r="F44" t="n">
-        <v>196.0196072068437</v>
+        <v>196.0196072068436</v>
       </c>
       <c r="G44" t="n">
-        <v>201.6503170204127</v>
+        <v>201.6503170204126</v>
       </c>
       <c r="H44" t="n">
-        <v>99.98401333453842</v>
+        <v>99.9840133345383</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>40.2655358161804</v>
+        <v>40.26553581618029</v>
       </c>
       <c r="V44" t="n">
-        <v>116.8958199352672</v>
+        <v>116.8958199352671</v>
       </c>
       <c r="W44" t="n">
-        <v>138.3845301825453</v>
+        <v>138.3845301825452</v>
       </c>
       <c r="X44" t="n">
-        <v>158.8746621436013</v>
+        <v>158.8746621436012</v>
       </c>
       <c r="Y44" t="n">
-        <v>175.3815001211859</v>
+        <v>175.3815001211858</v>
       </c>
     </row>
     <row r="45">
@@ -4062,16 +4062,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>97.78740528786001</v>
       </c>
       <c r="I45" t="n">
         <v>37.8902269718528</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.27570910409743</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>143.8959572312332</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.1348704778385</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>150.2606790342043</v>
+        <v>104.2871951753649</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,31 +4132,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.4769047716244</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>117.7338241830654</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.68856559503196</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>202.1596393076441</v>
+        <v>160.5014626481075</v>
       </c>
       <c r="T46" t="n">
-        <v>11.73037645273341</v>
+        <v>11.7303764527333</v>
       </c>
       <c r="U46" t="n">
-        <v>75.39418093514639</v>
+        <v>75.39418093514628</v>
       </c>
       <c r="V46" t="n">
-        <v>41.28120478896028</v>
+        <v>41.28120478896017</v>
       </c>
       <c r="W46" t="n">
-        <v>75.66655980172328</v>
+        <v>75.66655980172317</v>
       </c>
       <c r="X46" t="n">
-        <v>14.85321685416943</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.728214817227069</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>833.9718018727996</v>
+        <v>1053.912078852517</v>
       </c>
       <c r="C11" t="n">
-        <v>833.9718018727996</v>
+        <v>817.3599803666659</v>
       </c>
       <c r="D11" t="n">
-        <v>742.1892983118215</v>
+        <v>591.5047002144765</v>
       </c>
       <c r="E11" t="n">
-        <v>488.8114641681385</v>
+        <v>591.5047002144765</v>
       </c>
       <c r="F11" t="n">
-        <v>210.2359778330922</v>
+        <v>312.92921387943</v>
       </c>
       <c r="G11" t="n">
-        <v>210.2359778330922</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="H11" t="n">
-        <v>28.66614187411191</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="I11" t="n">
-        <v>28.66614187411191</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="J11" t="n">
-        <v>84.36311551925064</v>
+        <v>84.3631155192507</v>
       </c>
       <c r="K11" t="n">
-        <v>218.5769593083176</v>
+        <v>218.5769593083174</v>
       </c>
       <c r="L11" t="n">
-        <v>421.9828623864894</v>
+        <v>421.9828623864889</v>
       </c>
       <c r="M11" t="n">
-        <v>679.9805591267274</v>
+        <v>679.9805591267267</v>
       </c>
       <c r="N11" t="n">
-        <v>946.7667367073431</v>
+        <v>946.7667367073419</v>
       </c>
       <c r="O11" t="n">
-        <v>1185.350097783942</v>
+        <v>1185.350097783941</v>
       </c>
       <c r="P11" t="n">
-        <v>1354.474475782723</v>
+        <v>1354.474475782722</v>
       </c>
       <c r="Q11" t="n">
-        <v>1433.307093705595</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="R11" t="n">
-        <v>1433.307093705595</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="S11" t="n">
-        <v>1433.307093705595</v>
+        <v>1418.943137739895</v>
       </c>
       <c r="T11" t="n">
-        <v>1433.307093705595</v>
+        <v>1418.943137739895</v>
       </c>
       <c r="U11" t="n">
-        <v>1312.058952209603</v>
+        <v>1418.943137739895</v>
       </c>
       <c r="V11" t="n">
-        <v>1312.058952209603</v>
+        <v>1220.290668850885</v>
       </c>
       <c r="W11" t="n">
-        <v>1091.70071539405</v>
+        <v>1220.290668850885</v>
       </c>
       <c r="X11" t="n">
-        <v>1091.70071539405</v>
+        <v>1220.290668850885</v>
       </c>
       <c r="Y11" t="n">
-        <v>833.9718018727996</v>
+        <v>1053.912078852517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>320.1626818196036</v>
+        <v>402.4517656217249</v>
       </c>
       <c r="C12" t="n">
-        <v>145.7096525384766</v>
+        <v>360.4091547951591</v>
       </c>
       <c r="D12" t="n">
-        <v>129.1856613317865</v>
+        <v>343.8851635884689</v>
       </c>
       <c r="E12" t="n">
-        <v>102.3586247808923</v>
+        <v>317.0581270375745</v>
       </c>
       <c r="F12" t="n">
-        <v>88.23448526233847</v>
+        <v>302.9339875190207</v>
       </c>
       <c r="G12" t="n">
-        <v>28.66614187411191</v>
+        <v>165.7142552677612</v>
       </c>
       <c r="H12" t="n">
-        <v>28.66614187411191</v>
+        <v>66.93909841133693</v>
       </c>
       <c r="I12" t="n">
-        <v>28.66614187411191</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="J12" t="n">
-        <v>43.021030857696</v>
+        <v>43.02103085769589</v>
       </c>
       <c r="K12" t="n">
-        <v>145.7106472686432</v>
+        <v>145.710647268643</v>
       </c>
       <c r="L12" t="n">
-        <v>330.1120503740907</v>
+        <v>330.1120503740904</v>
       </c>
       <c r="M12" t="n">
-        <v>564.6566583181321</v>
+        <v>564.6566583181316</v>
       </c>
       <c r="N12" t="n">
-        <v>819.8176090409371</v>
+        <v>819.8176090409363</v>
       </c>
       <c r="O12" t="n">
-        <v>1031.020234015603</v>
+        <v>1031.020234015602</v>
       </c>
       <c r="P12" t="n">
-        <v>1181.195894266823</v>
+        <v>1181.195894266822</v>
       </c>
       <c r="Q12" t="n">
-        <v>1433.307093705595</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="R12" t="n">
-        <v>1433.307093705595</v>
+        <v>1425.957892590344</v>
       </c>
       <c r="S12" t="n">
-        <v>1287.957641956875</v>
+        <v>1370.246725758997</v>
       </c>
       <c r="T12" t="n">
-        <v>1091.861813191382</v>
+        <v>1174.150896993503</v>
       </c>
       <c r="U12" t="n">
-        <v>863.7376089518577</v>
+        <v>1078.437111208541</v>
       </c>
       <c r="V12" t="n">
-        <v>760.9959191746763</v>
+        <v>975.6954214313591</v>
       </c>
       <c r="W12" t="n">
-        <v>639.1689809010359</v>
+        <v>853.8684831577186</v>
       </c>
       <c r="X12" t="n">
-        <v>563.7278991500643</v>
+        <v>646.0169829521858</v>
       </c>
       <c r="Y12" t="n">
-        <v>488.3780188396717</v>
+        <v>438.2566841872318</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8614999142588</v>
+        <v>173.8188124593543</v>
       </c>
       <c r="C13" t="n">
-        <v>326.3357354409131</v>
+        <v>137.2930479860086</v>
       </c>
       <c r="D13" t="n">
-        <v>238.5098817586027</v>
+        <v>119.586827028234</v>
       </c>
       <c r="E13" t="n">
-        <v>223.0072066307708</v>
+        <v>104.084151900402</v>
       </c>
       <c r="F13" t="n">
-        <v>208.5276775874217</v>
+        <v>89.60462285705279</v>
       </c>
       <c r="G13" t="n">
-        <v>172.5170878537156</v>
+        <v>53.59403312334661</v>
       </c>
       <c r="H13" t="n">
-        <v>152.3251214479476</v>
+        <v>33.40206671757849</v>
       </c>
       <c r="I13" t="n">
-        <v>33.40206671757848</v>
+        <v>33.40206671757849</v>
       </c>
       <c r="J13" t="n">
-        <v>28.66614187411191</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="K13" t="n">
-        <v>150.8752725800541</v>
+        <v>150.875272580054</v>
       </c>
       <c r="L13" t="n">
-        <v>362.7873193555498</v>
+        <v>362.7873193555496</v>
       </c>
       <c r="M13" t="n">
-        <v>596.6079835133996</v>
+        <v>596.6079835133994</v>
       </c>
       <c r="N13" t="n">
-        <v>830.3035313143102</v>
+        <v>830.30353131431</v>
       </c>
       <c r="O13" t="n">
-        <v>1030.142898914447</v>
+        <v>1030.142898914446</v>
       </c>
       <c r="P13" t="n">
-        <v>1177.619318985039</v>
+        <v>1177.619318985038</v>
       </c>
       <c r="Q13" t="n">
         <v>1196.289267781554</v>
       </c>
       <c r="R13" t="n">
-        <v>1196.289267781554</v>
+        <v>1074.167205534263</v>
       </c>
       <c r="S13" t="n">
-        <v>1124.498030369808</v>
+        <v>935.4553429149048</v>
       </c>
       <c r="T13" t="n">
-        <v>1032.073282170227</v>
+        <v>843.0305947153233</v>
       </c>
       <c r="U13" t="n">
-        <v>875.3416607560873</v>
+        <v>686.2989733011833</v>
       </c>
       <c r="V13" t="n">
-        <v>753.0675910047617</v>
+        <v>564.0249035498575</v>
       </c>
       <c r="W13" t="n">
-        <v>596.0608394223623</v>
+        <v>407.018151967458</v>
       </c>
       <c r="X13" t="n">
-        <v>500.4817069789062</v>
+        <v>311.4390195240018</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.0995462899373</v>
+        <v>223.0568588350329</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>833.971801872798</v>
+        <v>497.9766230047691</v>
       </c>
       <c r="C14" t="n">
-        <v>833.971801872798</v>
+        <v>497.9766230047691</v>
       </c>
       <c r="D14" t="n">
-        <v>833.971801872798</v>
+        <v>497.9766230047691</v>
       </c>
       <c r="E14" t="n">
-        <v>580.593967729115</v>
+        <v>497.9766230047691</v>
       </c>
       <c r="F14" t="n">
-        <v>312.9292138794299</v>
+        <v>494.4990498384105</v>
       </c>
       <c r="G14" t="n">
-        <v>28.66614187411187</v>
+        <v>210.2359778330924</v>
       </c>
       <c r="H14" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="I14" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="J14" t="n">
-        <v>84.36311551925064</v>
+        <v>84.36311551925087</v>
       </c>
       <c r="K14" t="n">
-        <v>218.5769593083173</v>
+        <v>218.5769593083176</v>
       </c>
       <c r="L14" t="n">
-        <v>421.9828623864889</v>
+        <v>421.9828623864892</v>
       </c>
       <c r="M14" t="n">
-        <v>679.9805591267266</v>
+        <v>679.980559126727</v>
       </c>
       <c r="N14" t="n">
-        <v>946.7667367073418</v>
+        <v>946.7667367073423</v>
       </c>
       <c r="O14" t="n">
         <v>1185.350097783941</v>
@@ -5300,28 +5300,28 @@
         <v>1433.307093705594</v>
       </c>
       <c r="R14" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="S14" t="n">
-        <v>1433.307093705593</v>
+        <v>1418.943137739894</v>
       </c>
       <c r="T14" t="n">
-        <v>1433.307093705593</v>
+        <v>1338.367254644084</v>
       </c>
       <c r="U14" t="n">
-        <v>1312.058952209602</v>
+        <v>1217.119113148092</v>
       </c>
       <c r="V14" t="n">
-        <v>1312.058952209602</v>
+        <v>1217.119113148092</v>
       </c>
       <c r="W14" t="n">
-        <v>1091.700715394049</v>
+        <v>996.7608763325387</v>
       </c>
       <c r="X14" t="n">
-        <v>1091.700715394049</v>
+        <v>755.7055365260198</v>
       </c>
       <c r="Y14" t="n">
-        <v>833.971801872798</v>
+        <v>497.9766230047691</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>312.8134807043515</v>
+        <v>667.2726025308475</v>
       </c>
       <c r="C15" t="n">
-        <v>270.7708698777857</v>
+        <v>492.8195732497205</v>
       </c>
       <c r="D15" t="n">
-        <v>121.8364602165345</v>
+        <v>476.2955820430302</v>
       </c>
       <c r="E15" t="n">
-        <v>95.0094236656402</v>
+        <v>449.4685454921357</v>
       </c>
       <c r="F15" t="n">
-        <v>80.8852841470864</v>
+        <v>302.9339875190207</v>
       </c>
       <c r="G15" t="n">
-        <v>66.93909841133693</v>
+        <v>165.7142552677612</v>
       </c>
       <c r="H15" t="n">
-        <v>66.93909841133693</v>
+        <v>66.93909841133694</v>
       </c>
       <c r="I15" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="J15" t="n">
-        <v>43.02103085769585</v>
+        <v>43.02103085769586</v>
       </c>
       <c r="K15" t="n">
         <v>145.710647268643</v>
       </c>
       <c r="L15" t="n">
-        <v>330.1120503740902</v>
+        <v>388.2131136760217</v>
       </c>
       <c r="M15" t="n">
-        <v>564.6566583181315</v>
+        <v>622.757721620063</v>
       </c>
       <c r="N15" t="n">
-        <v>819.8176090409362</v>
+        <v>877.9186723428677</v>
       </c>
       <c r="O15" t="n">
-        <v>1031.020234015602</v>
+        <v>1232.662178035002</v>
       </c>
       <c r="P15" t="n">
-        <v>1181.195894266821</v>
+        <v>1382.837838286221</v>
       </c>
       <c r="Q15" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="R15" t="n">
-        <v>1425.957892590343</v>
+        <v>1425.957892590344</v>
       </c>
       <c r="S15" t="n">
-        <v>1413.018859296184</v>
+        <v>1413.018859296185</v>
       </c>
       <c r="T15" t="n">
-        <v>1216.923030530691</v>
+        <v>1306.561315448065</v>
       </c>
       <c r="U15" t="n">
-        <v>988.798826291167</v>
+        <v>1210.847529663102</v>
       </c>
       <c r="V15" t="n">
-        <v>753.6467180594243</v>
+        <v>1108.105839885921</v>
       </c>
       <c r="W15" t="n">
-        <v>631.8197797857839</v>
+        <v>986.2789016122803</v>
       </c>
       <c r="X15" t="n">
-        <v>556.3786980348123</v>
+        <v>910.8378198613085</v>
       </c>
       <c r="Y15" t="n">
-        <v>481.0288177244196</v>
+        <v>835.4879395509156</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>230.4510814596971</v>
+        <v>362.8614999142566</v>
       </c>
       <c r="C16" t="n">
-        <v>137.2930479860081</v>
+        <v>193.9253169863497</v>
       </c>
       <c r="D16" t="n">
-        <v>119.5868270282336</v>
+        <v>176.219096028575</v>
       </c>
       <c r="E16" t="n">
-        <v>104.0841519004017</v>
+        <v>160.7164209007429</v>
       </c>
       <c r="F16" t="n">
-        <v>89.60462285705262</v>
+        <v>89.60462285705304</v>
       </c>
       <c r="G16" t="n">
-        <v>53.59403312334653</v>
+        <v>53.59403312334675</v>
       </c>
       <c r="H16" t="n">
-        <v>33.40206671757849</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="I16" t="n">
-        <v>33.40206671757849</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="J16" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="K16" t="n">
         <v>150.875272580054</v>
@@ -5464,22 +5464,22 @@
         <v>1124.498030369808</v>
       </c>
       <c r="T16" t="n">
-        <v>1032.073282170227</v>
+        <v>1032.073282170226</v>
       </c>
       <c r="U16" t="n">
-        <v>875.3416607560869</v>
+        <v>875.3416607560862</v>
       </c>
       <c r="V16" t="n">
-        <v>620.6571725502</v>
+        <v>753.0675910047603</v>
       </c>
       <c r="W16" t="n">
-        <v>463.6504209678006</v>
+        <v>596.0608394223607</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0712885243445</v>
+        <v>500.4817069789044</v>
       </c>
       <c r="Y16" t="n">
-        <v>279.6891278353756</v>
+        <v>412.0995462899353</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>841.3074592079184</v>
+        <v>841.3074592079181</v>
       </c>
       <c r="C17" t="n">
-        <v>712.6807423466115</v>
+        <v>712.6807423466112</v>
       </c>
       <c r="D17" t="n">
-        <v>594.7508438189657</v>
+        <v>594.7508438189654</v>
       </c>
       <c r="E17" t="n">
-        <v>449.2983912998262</v>
+        <v>449.298391299826</v>
       </c>
       <c r="F17" t="n">
-        <v>278.6482865893233</v>
+        <v>278.6482865893232</v>
       </c>
       <c r="G17" t="n">
         <v>102.3105962085487</v>
       </c>
       <c r="H17" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="I17" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="J17" t="n">
-        <v>84.36311551925064</v>
+        <v>84.36311551925066</v>
       </c>
       <c r="K17" t="n">
         <v>218.5769593083173</v>
       </c>
       <c r="L17" t="n">
-        <v>421.9828623864887</v>
+        <v>421.9828623864889</v>
       </c>
       <c r="M17" t="n">
-        <v>679.9805591267263</v>
+        <v>679.9805591267266</v>
       </c>
       <c r="N17" t="n">
-        <v>946.7667367073416</v>
+        <v>946.7667367073418</v>
       </c>
       <c r="O17" t="n">
         <v>1185.350097783941</v>
       </c>
       <c r="P17" t="n">
-        <v>1354.474475782721</v>
+        <v>1354.474475782722</v>
       </c>
       <c r="Q17" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="R17" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="S17" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="T17" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="U17" t="n">
-        <v>1419.984333834144</v>
+        <v>1419.984333834145</v>
       </c>
       <c r="V17" t="n">
-        <v>1382.937844462627</v>
+        <v>1329.257246569679</v>
       </c>
       <c r="W17" t="n">
-        <v>1270.504989271618</v>
+        <v>1216.82439137867</v>
       </c>
       <c r="X17" t="n">
-        <v>1137.375031089643</v>
+        <v>1137.375031089642</v>
       </c>
       <c r="Y17" t="n">
-        <v>987.5714991929356</v>
+        <v>987.5714991929351</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>471.6578871039419</v>
+        <v>241.392127692464</v>
       </c>
       <c r="C18" t="n">
-        <v>471.6578871039419</v>
+        <v>66.93909841133694</v>
       </c>
       <c r="D18" t="n">
-        <v>471.6578871039419</v>
+        <v>66.93909841133694</v>
       </c>
       <c r="E18" t="n">
-        <v>312.4204320984864</v>
+        <v>66.93909841133694</v>
       </c>
       <c r="F18" t="n">
-        <v>165.8858741253714</v>
+        <v>66.93909841133694</v>
       </c>
       <c r="G18" t="n">
-        <v>28.66614187411187</v>
+        <v>66.93909841133694</v>
       </c>
       <c r="H18" t="n">
-        <v>28.66614187411187</v>
+        <v>66.93909841133694</v>
       </c>
       <c r="I18" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="J18" t="n">
-        <v>43.02103085769585</v>
+        <v>167.8511558447006</v>
       </c>
       <c r="K18" t="n">
-        <v>145.710647268643</v>
+        <v>270.5407722556477</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1120503740902</v>
+        <v>454.942175361095</v>
       </c>
       <c r="M18" t="n">
-        <v>564.6566583181315</v>
+        <v>689.4867833051362</v>
       </c>
       <c r="N18" t="n">
-        <v>819.8176090409362</v>
+        <v>944.6477340279409</v>
       </c>
       <c r="O18" t="n">
-        <v>1031.020234015602</v>
+        <v>1155.850359002607</v>
       </c>
       <c r="P18" t="n">
-        <v>1181.195894266821</v>
+        <v>1306.026019253826</v>
       </c>
       <c r="Q18" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="R18" t="n">
-        <v>1425.957892590343</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="S18" t="n">
-        <v>1280.608440841623</v>
+        <v>1302.944258643503</v>
       </c>
       <c r="T18" t="n">
-        <v>1280.608440841623</v>
+        <v>1106.848429878009</v>
       </c>
       <c r="U18" t="n">
-        <v>1280.608440841623</v>
+        <v>1106.848429878009</v>
       </c>
       <c r="V18" t="n">
-        <v>1045.45633260988</v>
+        <v>871.6963216462664</v>
       </c>
       <c r="W18" t="n">
-        <v>791.2189758816787</v>
+        <v>617.4589649180648</v>
       </c>
       <c r="X18" t="n">
-        <v>583.3674756761459</v>
+        <v>409.607464712532</v>
       </c>
       <c r="Y18" t="n">
-        <v>471.6578871039419</v>
+        <v>409.607464712532</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>603.38136974911</v>
+        <v>455.0441457206126</v>
       </c>
       <c r="C19" t="n">
-        <v>502.3385533485682</v>
+        <v>455.0441457206126</v>
       </c>
       <c r="D19" t="n">
-        <v>502.3385533485682</v>
+        <v>304.9275063082769</v>
       </c>
       <c r="E19" t="n">
-        <v>354.4254597661751</v>
+        <v>304.9275063082769</v>
       </c>
       <c r="F19" t="n">
-        <v>354.4254597661751</v>
+        <v>304.9275063082769</v>
       </c>
       <c r="G19" t="n">
-        <v>186.0044515779078</v>
+        <v>304.9275063082769</v>
       </c>
       <c r="H19" t="n">
-        <v>33.40206671757849</v>
+        <v>152.3251214479476</v>
       </c>
       <c r="I19" t="n">
-        <v>33.40206671757849</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="J19" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="K19" t="n">
         <v>150.875272580054</v>
@@ -5695,28 +5695,28 @@
         <v>1196.289267781554</v>
       </c>
       <c r="R19" t="n">
-        <v>1196.289267781554</v>
+        <v>1074.167205534263</v>
       </c>
       <c r="S19" t="n">
-        <v>1196.289267781554</v>
+        <v>869.9655496679557</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.289267781554</v>
+        <v>869.9655496679557</v>
       </c>
       <c r="U19" t="n">
-        <v>1147.483027991957</v>
+        <v>580.8235097992545</v>
       </c>
       <c r="V19" t="n">
-        <v>892.7985397860706</v>
+        <v>566.4748216724723</v>
       </c>
       <c r="W19" t="n">
-        <v>603.38136974911</v>
+        <v>455.0441457206126</v>
       </c>
       <c r="X19" t="n">
-        <v>603.38136974911</v>
+        <v>455.0441457206126</v>
       </c>
       <c r="Y19" t="n">
-        <v>603.38136974911</v>
+        <v>455.0441457206126</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>841.3074592079184</v>
+        <v>787.6268613149703</v>
       </c>
       <c r="C20" t="n">
-        <v>712.6807423466115</v>
+        <v>659.0001444536633</v>
       </c>
       <c r="D20" t="n">
-        <v>594.7508438189657</v>
+        <v>541.0702459260176</v>
       </c>
       <c r="E20" t="n">
-        <v>449.2983912998262</v>
+        <v>449.2983912998259</v>
       </c>
       <c r="F20" t="n">
-        <v>278.6482865893233</v>
+        <v>278.6482865893231</v>
       </c>
       <c r="G20" t="n">
         <v>102.3105962085487</v>
       </c>
       <c r="H20" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="I20" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="J20" t="n">
-        <v>84.36311551925064</v>
+        <v>84.36311551925066</v>
       </c>
       <c r="K20" t="n">
         <v>218.5769593083173</v>
@@ -5774,13 +5774,13 @@
         <v>1433.307093705594</v>
       </c>
       <c r="R20" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="S20" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="T20" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="U20" t="n">
         <v>1419.984333834145</v>
@@ -5792,10 +5792,10 @@
         <v>1216.824391378669</v>
       </c>
       <c r="X20" t="n">
-        <v>1137.375031089643</v>
+        <v>1083.694433196694</v>
       </c>
       <c r="Y20" t="n">
-        <v>987.5714991929356</v>
+        <v>933.8909012999873</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>175.2006998472269</v>
+        <v>521.6455210511588</v>
       </c>
       <c r="C21" t="n">
-        <v>175.2006998472269</v>
+        <v>521.6455210511588</v>
       </c>
       <c r="D21" t="n">
-        <v>175.2006998472269</v>
+        <v>372.7111113899075</v>
       </c>
       <c r="E21" t="n">
-        <v>175.2006998472269</v>
+        <v>213.473656384452</v>
       </c>
       <c r="F21" t="n">
-        <v>28.66614187411187</v>
+        <v>66.93909841133694</v>
       </c>
       <c r="G21" t="n">
-        <v>28.66614187411187</v>
+        <v>66.93909841133694</v>
       </c>
       <c r="H21" t="n">
-        <v>28.66614187411187</v>
+        <v>66.93909841133694</v>
       </c>
       <c r="I21" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="J21" t="n">
-        <v>43.02103085769585</v>
+        <v>167.8511558447006</v>
       </c>
       <c r="K21" t="n">
-        <v>145.710647268643</v>
+        <v>270.5407722556477</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1120503740902</v>
+        <v>454.942175361095</v>
       </c>
       <c r="M21" t="n">
-        <v>564.6566583181315</v>
+        <v>689.4867833051362</v>
       </c>
       <c r="N21" t="n">
-        <v>819.8176090409362</v>
+        <v>1021.459553060336</v>
       </c>
       <c r="O21" t="n">
-        <v>1031.020234015602</v>
+        <v>1232.662178035002</v>
       </c>
       <c r="P21" t="n">
-        <v>1181.195894266821</v>
+        <v>1382.837838286221</v>
       </c>
       <c r="Q21" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="R21" t="n">
-        <v>1425.957892590343</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="S21" t="n">
-        <v>1280.608440841623</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="T21" t="n">
-        <v>1248.417300797726</v>
+        <v>1433.307093705594</v>
       </c>
       <c r="U21" t="n">
-        <v>1248.417300797726</v>
+        <v>1426.64678498159</v>
       </c>
       <c r="V21" t="n">
-        <v>1013.265192565983</v>
+        <v>1191.494676749847</v>
       </c>
       <c r="W21" t="n">
-        <v>759.0278358377816</v>
+        <v>937.2573200216455</v>
       </c>
       <c r="X21" t="n">
-        <v>551.1763356322488</v>
+        <v>729.4058198161126</v>
       </c>
       <c r="Y21" t="n">
-        <v>343.4160368672949</v>
+        <v>521.6455210511588</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>635.2708398657718</v>
+        <v>576.0807869634815</v>
       </c>
       <c r="C22" t="n">
-        <v>635.2708398657718</v>
+        <v>407.1446040355746</v>
       </c>
       <c r="D22" t="n">
-        <v>635.2708398657718</v>
+        <v>304.9275063082769</v>
       </c>
       <c r="E22" t="n">
-        <v>487.3577462833787</v>
+        <v>304.9275063082769</v>
       </c>
       <c r="F22" t="n">
-        <v>340.4677987854683</v>
+        <v>304.9275063082769</v>
       </c>
       <c r="G22" t="n">
-        <v>172.046790597201</v>
+        <v>304.9275063082769</v>
       </c>
       <c r="H22" t="n">
-        <v>33.40206671757849</v>
+        <v>152.3251214479476</v>
       </c>
       <c r="I22" t="n">
-        <v>33.40206671757849</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="J22" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411188</v>
       </c>
       <c r="K22" t="n">
         <v>150.875272580054</v>
@@ -5932,28 +5932,28 @@
         <v>1196.289267781554</v>
       </c>
       <c r="R22" t="n">
-        <v>1196.289267781554</v>
+        <v>1074.167205534263</v>
       </c>
       <c r="S22" t="n">
-        <v>1196.289267781554</v>
+        <v>869.9655496679557</v>
       </c>
       <c r="T22" t="n">
-        <v>1196.289267781554</v>
+        <v>869.9655496679557</v>
       </c>
       <c r="U22" t="n">
-        <v>1147.483027991957</v>
+        <v>821.1593098783593</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.134339865175</v>
+        <v>806.8106217515772</v>
       </c>
       <c r="W22" t="n">
-        <v>1084.052969907319</v>
+        <v>757.7292517937212</v>
       </c>
       <c r="X22" t="n">
-        <v>856.0634190093019</v>
+        <v>757.7292517937212</v>
       </c>
       <c r="Y22" t="n">
-        <v>635.2708398657718</v>
+        <v>757.7292517937212</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>842.4029816138971</v>
+        <v>842.4029816138964</v>
       </c>
       <c r="C23" t="n">
-        <v>713.7762647525901</v>
+        <v>713.7762647525894</v>
       </c>
       <c r="D23" t="n">
-        <v>595.8463662249443</v>
+        <v>595.8463662249437</v>
       </c>
       <c r="E23" t="n">
-        <v>450.3939137058047</v>
+        <v>450.3939137058042</v>
       </c>
       <c r="F23" t="n">
-        <v>279.7438089953018</v>
+        <v>279.7438089953014</v>
       </c>
       <c r="G23" t="n">
-        <v>103.4061186145273</v>
+        <v>103.4061186145272</v>
       </c>
       <c r="H23" t="n">
         <v>29.7616642800904</v>
@@ -5987,28 +5987,28 @@
         <v>29.7616642800904</v>
       </c>
       <c r="J23" t="n">
-        <v>85.45863792522918</v>
+        <v>113.6328918120548</v>
       </c>
       <c r="K23" t="n">
-        <v>219.6724817142959</v>
+        <v>247.8467356011215</v>
       </c>
       <c r="L23" t="n">
-        <v>423.0783847924675</v>
+        <v>451.2526386792931</v>
       </c>
       <c r="M23" t="n">
-        <v>681.0760815327052</v>
+        <v>709.2503354195308</v>
       </c>
       <c r="N23" t="n">
-        <v>947.8622591133205</v>
+        <v>976.036513000146</v>
       </c>
       <c r="O23" t="n">
-        <v>1186.44562018992</v>
+        <v>1214.619874076745</v>
       </c>
       <c r="P23" t="n">
-        <v>1355.5699981887</v>
+        <v>1383.744252075526</v>
       </c>
       <c r="Q23" t="n">
-        <v>1488.08321400452</v>
+        <v>1462.576869998398</v>
       </c>
       <c r="R23" t="n">
         <v>1488.08321400452</v>
@@ -6020,19 +6020,19 @@
         <v>1488.08321400452</v>
       </c>
       <c r="U23" t="n">
-        <v>1474.760454133072</v>
+        <v>1474.760454133071</v>
       </c>
       <c r="V23" t="n">
-        <v>1384.033366868606</v>
+        <v>1384.033366868605</v>
       </c>
       <c r="W23" t="n">
-        <v>1271.600511677596</v>
+        <v>1271.600511677595</v>
       </c>
       <c r="X23" t="n">
-        <v>1138.470553495621</v>
+        <v>1138.47055349562</v>
       </c>
       <c r="Y23" t="n">
-        <v>988.6670215989142</v>
+        <v>988.6670215989134</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>512.3865582279242</v>
+        <v>658.9211162010392</v>
       </c>
       <c r="C24" t="n">
-        <v>337.9335289467972</v>
+        <v>484.4680869199122</v>
       </c>
       <c r="D24" t="n">
-        <v>188.9991192855459</v>
+        <v>335.5336772586609</v>
       </c>
       <c r="E24" t="n">
-        <v>29.7616642800904</v>
+        <v>176.2962222532054</v>
       </c>
       <c r="F24" t="n">
         <v>29.7616642800904</v>
@@ -6069,49 +6069,49 @@
         <v>44.11655326367438</v>
       </c>
       <c r="K24" t="n">
-        <v>194.1521967284785</v>
+        <v>402.1287115869687</v>
       </c>
       <c r="L24" t="n">
-        <v>378.5535998339258</v>
+        <v>586.530114692416</v>
       </c>
       <c r="M24" t="n">
-        <v>613.098207777967</v>
+        <v>821.0747226364572</v>
       </c>
       <c r="N24" t="n">
-        <v>868.2591585007717</v>
+        <v>1076.235673359262</v>
       </c>
       <c r="O24" t="n">
-        <v>1079.461783475438</v>
+        <v>1287.438298333928</v>
       </c>
       <c r="P24" t="n">
-        <v>1229.637443726657</v>
+        <v>1437.613958585147</v>
       </c>
       <c r="Q24" t="n">
         <v>1488.08321400452</v>
       </c>
       <c r="R24" t="n">
-        <v>1480.73401288927</v>
+        <v>1488.08321400452</v>
       </c>
       <c r="S24" t="n">
-        <v>1480.73401288927</v>
+        <v>1488.08321400452</v>
       </c>
       <c r="T24" t="n">
-        <v>1480.73401288927</v>
+        <v>1488.08321400452</v>
       </c>
       <c r="U24" t="n">
-        <v>1350.45105094668</v>
+        <v>1488.08321400452</v>
       </c>
       <c r="V24" t="n">
-        <v>1350.45105094668</v>
+        <v>1488.08321400452</v>
       </c>
       <c r="W24" t="n">
-        <v>1096.213694218479</v>
+        <v>1242.748252191594</v>
       </c>
       <c r="X24" t="n">
-        <v>888.362194012946</v>
+        <v>1034.896751986061</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.6018952479922</v>
+        <v>827.1364532211073</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.4406626647929</v>
+        <v>34.49758912355702</v>
       </c>
       <c r="C25" t="n">
-        <v>800.4406626647929</v>
+        <v>34.49758912355702</v>
       </c>
       <c r="D25" t="n">
-        <v>650.3240232524571</v>
+        <v>34.49758912355702</v>
       </c>
       <c r="E25" t="n">
-        <v>502.410929670064</v>
+        <v>34.49758912355702</v>
       </c>
       <c r="F25" t="n">
-        <v>355.5209821721536</v>
+        <v>34.49758912355702</v>
       </c>
       <c r="G25" t="n">
-        <v>187.0999739838863</v>
+        <v>34.49758912355702</v>
       </c>
       <c r="H25" t="n">
-        <v>34.49758912355703</v>
+        <v>34.49758912355702</v>
       </c>
       <c r="I25" t="n">
-        <v>34.49758912355703</v>
+        <v>34.49758912355702</v>
       </c>
       <c r="J25" t="n">
         <v>29.7616642800904</v>
@@ -6172,25 +6172,25 @@
         <v>1197.384790187532</v>
       </c>
       <c r="S25" t="n">
-        <v>993.1831343212252</v>
+        <v>1001.999648523721</v>
       </c>
       <c r="T25" t="n">
-        <v>912.6769605390275</v>
+        <v>777.1644818695786</v>
       </c>
       <c r="U25" t="n">
-        <v>863.870720749431</v>
+        <v>728.3582420799822</v>
       </c>
       <c r="V25" t="n">
-        <v>849.5220326226488</v>
+        <v>714.0095539532001</v>
       </c>
       <c r="W25" t="n">
-        <v>800.4406626647929</v>
+        <v>664.9281839953442</v>
       </c>
       <c r="X25" t="n">
-        <v>800.4406626647929</v>
+        <v>436.9386330973268</v>
       </c>
       <c r="Y25" t="n">
-        <v>800.4406626647929</v>
+        <v>216.1460539537967</v>
       </c>
     </row>
     <row r="26">
@@ -6209,19 +6209,19 @@
         <v>1160.852018291685</v>
       </c>
       <c r="E26" t="n">
-        <v>882.9891473179844</v>
+        <v>882.989147317984</v>
       </c>
       <c r="F26" t="n">
-        <v>579.9286241529203</v>
+        <v>579.92862415292</v>
       </c>
       <c r="G26" t="n">
-        <v>271.1805153175841</v>
+        <v>271.180515317584</v>
       </c>
       <c r="H26" t="n">
-        <v>65.12564252858594</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="I26" t="n">
-        <v>65.12564252858594</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="J26" t="n">
         <v>288.2282651940777</v>
@@ -6230,46 +6230,46 @@
         <v>743.3460674285975</v>
       </c>
       <c r="L26" t="n">
-        <v>1313.686809810879</v>
+        <v>1313.686809810878</v>
       </c>
       <c r="M26" t="n">
-        <v>1571.684506551117</v>
+        <v>1571.684506551116</v>
       </c>
       <c r="N26" t="n">
-        <v>1838.470684131732</v>
+        <v>1838.470684131731</v>
       </c>
       <c r="O26" t="n">
-        <v>2454.046224658449</v>
+        <v>2454.046224658448</v>
       </c>
       <c r="P26" t="n">
-        <v>2941.751323746998</v>
+        <v>2941.751323746997</v>
       </c>
       <c r="Q26" t="n">
-        <v>3230.775782423175</v>
+        <v>3230.775782423174</v>
       </c>
       <c r="R26" t="n">
-        <v>3256.282126429297</v>
+        <v>3256.282126429296</v>
       </c>
       <c r="S26" t="n">
         <v>3217.433133633579</v>
       </c>
       <c r="T26" t="n">
-        <v>3112.372213707752</v>
+        <v>3112.372213707751</v>
       </c>
       <c r="U26" t="n">
         <v>2966.639035381741</v>
       </c>
       <c r="V26" t="n">
-        <v>2743.501529662714</v>
+        <v>2743.501529662713</v>
       </c>
       <c r="W26" t="n">
-        <v>2498.658256017144</v>
+        <v>2498.658256017143</v>
       </c>
       <c r="X26" t="n">
-        <v>2233.117879380608</v>
+        <v>2233.117879380607</v>
       </c>
       <c r="Y26" t="n">
-        <v>1950.903929029339</v>
+        <v>1950.903929029338</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>968.5529400944437</v>
+        <v>968.5529400944434</v>
       </c>
       <c r="C27" t="n">
-        <v>794.0999108133167</v>
+        <v>794.0999108133165</v>
       </c>
       <c r="D27" t="n">
-        <v>645.1655011520654</v>
+        <v>645.1655011520652</v>
       </c>
       <c r="E27" t="n">
-        <v>485.9280461466099</v>
+        <v>485.9280461466097</v>
       </c>
       <c r="F27" t="n">
-        <v>339.3934881734948</v>
+        <v>339.3934881734947</v>
       </c>
       <c r="G27" t="n">
-        <v>202.1737559222353</v>
+        <v>202.1737559222352</v>
       </c>
       <c r="H27" t="n">
         <v>103.398599065811</v>
       </c>
       <c r="I27" t="n">
-        <v>65.12564252858594</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="J27" t="n">
         <v>204.3106564991747</v>
@@ -6309,16 +6309,16 @@
         <v>568.8208575525746</v>
       </c>
       <c r="L27" t="n">
-        <v>1120.354202508447</v>
+        <v>1119.234916659374</v>
       </c>
       <c r="M27" t="n">
-        <v>1354.898810452488</v>
+        <v>1353.779524603415</v>
       </c>
       <c r="N27" t="n">
-        <v>1610.059761175293</v>
+        <v>1608.940475326219</v>
       </c>
       <c r="O27" t="n">
-        <v>1894.78865543131</v>
+        <v>2210.066796384848</v>
       </c>
       <c r="P27" t="n">
         <v>2360.242456636067</v>
@@ -6336,7 +6336,7 @@
         <v>2269.893745284466</v>
       </c>
       <c r="U27" t="n">
-        <v>2041.769541044943</v>
+        <v>2041.769541044942</v>
       </c>
       <c r="V27" t="n">
         <v>1806.6174328132</v>
@@ -6345,10 +6345,10 @@
         <v>1552.380076084998</v>
       </c>
       <c r="X27" t="n">
-        <v>1344.528575879466</v>
+        <v>1344.528575879465</v>
       </c>
       <c r="Y27" t="n">
-        <v>1136.768277114512</v>
+        <v>1136.768277114511</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>363.4502823562938</v>
+        <v>363.4502823562933</v>
       </c>
       <c r="C28" t="n">
-        <v>302.4394810529303</v>
+        <v>302.4394810529299</v>
       </c>
       <c r="D28" t="n">
-        <v>260.248223265138</v>
+        <v>260.2482232651377</v>
       </c>
       <c r="E28" t="n">
-        <v>220.2605113072883</v>
+        <v>220.260511307288</v>
       </c>
       <c r="F28" t="n">
-        <v>181.2959454339214</v>
+        <v>181.2959454339212</v>
       </c>
       <c r="G28" t="n">
-        <v>120.8003188701975</v>
+        <v>120.8003188701973</v>
       </c>
       <c r="H28" t="n">
-        <v>76.12331563441164</v>
+        <v>76.12331563441155</v>
       </c>
       <c r="I28" t="n">
-        <v>65.12564252858594</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="J28" t="n">
-        <v>65.12564252858594</v>
+        <v>166.2616291197194</v>
       </c>
       <c r="K28" t="n">
-        <v>187.334773234528</v>
+        <v>288.4707598256615</v>
       </c>
       <c r="L28" t="n">
-        <v>399.2468200100236</v>
+        <v>500.3828066011571</v>
       </c>
       <c r="M28" t="n">
-        <v>633.0674841678734</v>
+        <v>734.2034707590069</v>
       </c>
       <c r="N28" t="n">
-        <v>866.7630319687839</v>
+        <v>967.8990185599174</v>
       </c>
       <c r="O28" t="n">
-        <v>1066.60239956892</v>
+        <v>1167.738386160054</v>
       </c>
       <c r="P28" t="n">
-        <v>1282.507410159749</v>
+        <v>1388.285076689963</v>
       </c>
       <c r="Q28" t="n">
-        <v>1406.95502548648</v>
+        <v>1406.955025486479</v>
       </c>
       <c r="R28" t="n">
-        <v>1392.758344863732</v>
+        <v>1392.758344863731</v>
       </c>
       <c r="S28" t="n">
-        <v>1296.482070621968</v>
+        <v>1296.482070621967</v>
       </c>
       <c r="T28" t="n">
-        <v>1179.572285592369</v>
+        <v>1179.572285592368</v>
       </c>
       <c r="U28" t="n">
-        <v>998.3556273482113</v>
+        <v>998.3556273482104</v>
       </c>
       <c r="V28" t="n">
-        <v>851.5965207668679</v>
+        <v>851.596520766867</v>
       </c>
       <c r="W28" t="n">
-        <v>670.1047323544507</v>
+        <v>670.1047323544499</v>
       </c>
       <c r="X28" t="n">
-        <v>550.0405630809768</v>
+        <v>550.0405630809761</v>
       </c>
       <c r="Y28" t="n">
-        <v>437.1733655619901</v>
+        <v>437.1733655619895</v>
       </c>
     </row>
     <row r="29">
@@ -6446,46 +6446,46 @@
         <v>1160.852018291685</v>
       </c>
       <c r="E29" t="n">
-        <v>882.9891473179841</v>
+        <v>882.9891473179844</v>
       </c>
       <c r="F29" t="n">
-        <v>579.92862415292</v>
+        <v>579.9286241529205</v>
       </c>
       <c r="G29" t="n">
-        <v>271.1805153175841</v>
+        <v>271.180515317584</v>
       </c>
       <c r="H29" t="n">
-        <v>65.12564252858594</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="I29" t="n">
-        <v>65.12564252858594</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="J29" t="n">
         <v>288.2282651940777</v>
       </c>
       <c r="K29" t="n">
-        <v>422.4421089831444</v>
+        <v>702.8137955709637</v>
       </c>
       <c r="L29" t="n">
-        <v>1039.332614466262</v>
+        <v>906.2196986491354</v>
       </c>
       <c r="M29" t="n">
-        <v>1297.3303112065</v>
+        <v>1164.217395389373</v>
       </c>
       <c r="N29" t="n">
         <v>1863.977028137853</v>
       </c>
       <c r="O29" t="n">
-        <v>2479.552568664571</v>
+        <v>2479.55256866457</v>
       </c>
       <c r="P29" t="n">
-        <v>2967.257667753119</v>
+        <v>2967.257667753118</v>
       </c>
       <c r="Q29" t="n">
-        <v>3256.282126429297</v>
+        <v>3256.282126429296</v>
       </c>
       <c r="R29" t="n">
-        <v>3256.282126429297</v>
+        <v>3256.282126429296</v>
       </c>
       <c r="S29" t="n">
         <v>3217.433133633579</v>
@@ -6497,7 +6497,7 @@
         <v>2966.639035381741</v>
       </c>
       <c r="V29" t="n">
-        <v>2743.501529662714</v>
+        <v>2743.501529662713</v>
       </c>
       <c r="W29" t="n">
         <v>2498.658256017143</v>
@@ -6506,7 +6506,7 @@
         <v>2233.117879380607</v>
       </c>
       <c r="Y29" t="n">
-        <v>1950.903929029339</v>
+        <v>1950.903929029338</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>968.5529400944437</v>
+        <v>968.5529400944434</v>
       </c>
       <c r="C30" t="n">
-        <v>794.0999108133167</v>
+        <v>794.0999108133165</v>
       </c>
       <c r="D30" t="n">
-        <v>645.1655011520654</v>
+        <v>645.1655011520652</v>
       </c>
       <c r="E30" t="n">
-        <v>485.9280461466099</v>
+        <v>485.9280461466097</v>
       </c>
       <c r="F30" t="n">
-        <v>339.3934881734948</v>
+        <v>339.3934881734947</v>
       </c>
       <c r="G30" t="n">
-        <v>202.1737559222353</v>
+        <v>202.1737559222352</v>
       </c>
       <c r="H30" t="n">
         <v>103.398599065811</v>
       </c>
       <c r="I30" t="n">
-        <v>65.12564252858594</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="J30" t="n">
-        <v>79.48053151216992</v>
+        <v>204.3106564991747</v>
       </c>
       <c r="K30" t="n">
-        <v>314.6300734494919</v>
+        <v>307.0002729101218</v>
       </c>
       <c r="L30" t="n">
-        <v>866.1634184053638</v>
+        <v>491.401676015569</v>
       </c>
       <c r="M30" t="n">
-        <v>1561.756039461905</v>
+        <v>1186.99429707211</v>
       </c>
       <c r="N30" t="n">
-        <v>1816.91699018471</v>
+        <v>1916.704198395033</v>
       </c>
       <c r="O30" t="n">
-        <v>2418.043311243338</v>
+        <v>2127.906823369699</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.218971494557</v>
+        <v>2360.242456636067</v>
       </c>
       <c r="Q30" t="n">
         <v>2618.68822691393</v>
@@ -6573,7 +6573,7 @@
         <v>2269.893745284466</v>
       </c>
       <c r="U30" t="n">
-        <v>2041.769541044943</v>
+        <v>2041.769541044942</v>
       </c>
       <c r="V30" t="n">
         <v>1806.6174328132</v>
@@ -6582,10 +6582,10 @@
         <v>1552.380076084998</v>
       </c>
       <c r="X30" t="n">
-        <v>1344.528575879466</v>
+        <v>1344.528575879465</v>
       </c>
       <c r="Y30" t="n">
-        <v>1136.768277114512</v>
+        <v>1136.768277114511</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>363.4502823562938</v>
+        <v>363.4502823562928</v>
       </c>
       <c r="C31" t="n">
-        <v>302.4394810529303</v>
+        <v>302.4394810529295</v>
       </c>
       <c r="D31" t="n">
-        <v>260.248223265138</v>
+        <v>260.2482232651373</v>
       </c>
       <c r="E31" t="n">
-        <v>220.2605113072883</v>
+        <v>220.2605113072877</v>
       </c>
       <c r="F31" t="n">
-        <v>181.2959454339214</v>
+        <v>181.2959454339209</v>
       </c>
       <c r="G31" t="n">
-        <v>120.8003188701975</v>
+        <v>120.8003188701972</v>
       </c>
       <c r="H31" t="n">
-        <v>76.12331563441164</v>
+        <v>76.12331563441148</v>
       </c>
       <c r="I31" t="n">
-        <v>65.12564252858594</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="J31" t="n">
-        <v>166.2616291197193</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="K31" t="n">
-        <v>288.4707598256614</v>
+        <v>187.334773234528</v>
       </c>
       <c r="L31" t="n">
-        <v>573.4530770604756</v>
+        <v>399.2468200100236</v>
       </c>
       <c r="M31" t="n">
-        <v>807.2737412183254</v>
+        <v>633.0674841678734</v>
       </c>
       <c r="N31" t="n">
-        <v>1040.969289019236</v>
+        <v>972.5406984989991</v>
       </c>
       <c r="O31" t="n">
-        <v>1240.808656619372</v>
+        <v>1172.380066099135</v>
       </c>
       <c r="P31" t="n">
-        <v>1388.285076689964</v>
+        <v>1319.856486169727</v>
       </c>
       <c r="Q31" t="n">
-        <v>1406.95502548648</v>
+        <v>1406.955025486478</v>
       </c>
       <c r="R31" t="n">
-        <v>1392.758344863732</v>
+        <v>1392.75834486373</v>
       </c>
       <c r="S31" t="n">
-        <v>1296.482070621968</v>
+        <v>1296.482070621966</v>
       </c>
       <c r="T31" t="n">
-        <v>1179.572285592369</v>
+        <v>1179.572285592367</v>
       </c>
       <c r="U31" t="n">
-        <v>998.3556273482113</v>
+        <v>998.3556273482097</v>
       </c>
       <c r="V31" t="n">
-        <v>851.5965207668679</v>
+        <v>851.5965207668664</v>
       </c>
       <c r="W31" t="n">
-        <v>670.1047323544507</v>
+        <v>670.1047323544493</v>
       </c>
       <c r="X31" t="n">
-        <v>550.0405630809768</v>
+        <v>550.0405630809755</v>
       </c>
       <c r="Y31" t="n">
-        <v>437.1733655619901</v>
+        <v>437.1733655619889</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1672.22947058976</v>
+        <v>1672.229470589759</v>
       </c>
       <c r="C32" t="n">
-        <v>1411.192335273892</v>
+        <v>1411.192335273891</v>
       </c>
       <c r="D32" t="n">
-        <v>1160.852018291685</v>
+        <v>1160.852018291684</v>
       </c>
       <c r="E32" t="n">
-        <v>882.9891473179839</v>
+        <v>882.989147317983</v>
       </c>
       <c r="F32" t="n">
-        <v>579.9286241529198</v>
+        <v>579.9286241529189</v>
       </c>
       <c r="G32" t="n">
-        <v>271.1805153175841</v>
+        <v>271.180515317584</v>
       </c>
       <c r="H32" t="n">
-        <v>65.12564252858594</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="I32" t="n">
-        <v>65.12564252858594</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="J32" t="n">
         <v>288.2282651940777</v>
       </c>
       <c r="K32" t="n">
-        <v>487.4760909292845</v>
+        <v>702.8137955709637</v>
       </c>
       <c r="L32" t="n">
-        <v>1104.366596412402</v>
+        <v>906.2196986491354</v>
       </c>
       <c r="M32" t="n">
-        <v>1807.382691310544</v>
+        <v>1164.217395389373</v>
       </c>
       <c r="N32" t="n">
-        <v>2074.168868891159</v>
+        <v>1863.977028137853</v>
       </c>
       <c r="O32" t="n">
-        <v>2689.744409417876</v>
+        <v>2479.55256866457</v>
       </c>
       <c r="P32" t="n">
-        <v>3177.449508506425</v>
+        <v>2967.257667753118</v>
       </c>
       <c r="Q32" t="n">
-        <v>3256.282126429297</v>
+        <v>3256.282126429296</v>
       </c>
       <c r="R32" t="n">
-        <v>3256.282126429297</v>
+        <v>3256.282126429296</v>
       </c>
       <c r="S32" t="n">
-        <v>3217.433133633579</v>
+        <v>3217.433133633577</v>
       </c>
       <c r="T32" t="n">
-        <v>3112.372213707751</v>
+        <v>3112.372213707749</v>
       </c>
       <c r="U32" t="n">
-        <v>2966.639035381741</v>
+        <v>2966.63903538174</v>
       </c>
       <c r="V32" t="n">
         <v>2743.501529662713</v>
       </c>
       <c r="W32" t="n">
-        <v>2498.658256017143</v>
+        <v>2498.658256017142</v>
       </c>
       <c r="X32" t="n">
-        <v>2233.117879380607</v>
+        <v>2233.117879380606</v>
       </c>
       <c r="Y32" t="n">
-        <v>1950.903929029338</v>
+        <v>1950.903929029337</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>968.5529400944437</v>
+        <v>968.5529400944434</v>
       </c>
       <c r="C33" t="n">
-        <v>794.0999108133167</v>
+        <v>794.0999108133165</v>
       </c>
       <c r="D33" t="n">
-        <v>645.1655011520654</v>
+        <v>645.1655011520652</v>
       </c>
       <c r="E33" t="n">
-        <v>485.9280461466099</v>
+        <v>485.9280461466097</v>
       </c>
       <c r="F33" t="n">
-        <v>339.3934881734948</v>
+        <v>339.3934881734947</v>
       </c>
       <c r="G33" t="n">
-        <v>202.1737559222353</v>
+        <v>202.1737559222352</v>
       </c>
       <c r="H33" t="n">
         <v>103.398599065811</v>
       </c>
       <c r="I33" t="n">
-        <v>65.12564252858594</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="J33" t="n">
         <v>204.3106564991747</v>
@@ -6783,13 +6783,13 @@
         <v>568.8208575525746</v>
       </c>
       <c r="L33" t="n">
-        <v>803.9567757058358</v>
+        <v>1120.354202508447</v>
       </c>
       <c r="M33" t="n">
-        <v>1038.501383649877</v>
+        <v>1428.425079733839</v>
       </c>
       <c r="N33" t="n">
-        <v>1293.662334372682</v>
+        <v>1683.586030456644</v>
       </c>
       <c r="O33" t="n">
         <v>1894.78865543131</v>
@@ -6810,7 +6810,7 @@
         <v>2269.893745284466</v>
       </c>
       <c r="U33" t="n">
-        <v>2041.769541044943</v>
+        <v>2041.769541044942</v>
       </c>
       <c r="V33" t="n">
         <v>1806.6174328132</v>
@@ -6819,10 +6819,10 @@
         <v>1552.380076084998</v>
       </c>
       <c r="X33" t="n">
-        <v>1344.528575879466</v>
+        <v>1344.528575879465</v>
       </c>
       <c r="Y33" t="n">
-        <v>1136.768277114512</v>
+        <v>1136.768277114511</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>363.4502823562938</v>
+        <v>363.4502823562932</v>
       </c>
       <c r="C34" t="n">
-        <v>302.4394810529303</v>
+        <v>302.4394810529298</v>
       </c>
       <c r="D34" t="n">
-        <v>260.248223265138</v>
+        <v>260.2482232651376</v>
       </c>
       <c r="E34" t="n">
-        <v>220.2605113072883</v>
+        <v>220.260511307288</v>
       </c>
       <c r="F34" t="n">
-        <v>181.2959454339214</v>
+        <v>181.2959454339211</v>
       </c>
       <c r="G34" t="n">
-        <v>120.8003188701975</v>
+        <v>120.8003188701973</v>
       </c>
       <c r="H34" t="n">
-        <v>76.12331563441164</v>
+        <v>76.12331563441154</v>
       </c>
       <c r="I34" t="n">
-        <v>65.12564252858594</v>
+        <v>65.12564252858593</v>
       </c>
       <c r="J34" t="n">
-        <v>166.2616291197193</v>
+        <v>133.5542330488211</v>
       </c>
       <c r="K34" t="n">
-        <v>361.54103028498</v>
+        <v>255.7633637547632</v>
       </c>
       <c r="L34" t="n">
-        <v>573.4530770604756</v>
+        <v>467.6754105302588</v>
       </c>
       <c r="M34" t="n">
-        <v>807.2737412183254</v>
+        <v>701.4960746881086</v>
       </c>
       <c r="N34" t="n">
-        <v>1040.969289019236</v>
+        <v>935.1916224890191</v>
       </c>
       <c r="O34" t="n">
-        <v>1240.808656619372</v>
+        <v>1135.030990089155</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.285076689964</v>
+        <v>1282.507410159747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1406.95502548648</v>
+        <v>1406.955025486478</v>
       </c>
       <c r="R34" t="n">
-        <v>1392.758344863732</v>
+        <v>1392.758344863731</v>
       </c>
       <c r="S34" t="n">
-        <v>1296.482070621968</v>
+        <v>1296.482070621967</v>
       </c>
       <c r="T34" t="n">
-        <v>1179.572285592369</v>
+        <v>1179.572285592368</v>
       </c>
       <c r="U34" t="n">
-        <v>998.3556273482113</v>
+        <v>998.3556273482103</v>
       </c>
       <c r="V34" t="n">
-        <v>851.5965207668679</v>
+        <v>851.5965207668669</v>
       </c>
       <c r="W34" t="n">
-        <v>670.1047323544507</v>
+        <v>670.1047323544498</v>
       </c>
       <c r="X34" t="n">
-        <v>550.0405630809768</v>
+        <v>550.040563080976</v>
       </c>
       <c r="Y34" t="n">
-        <v>437.1733655619901</v>
+        <v>437.1733655619894</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>1013.19780916068</v>
       </c>
       <c r="C35" t="n">
-        <v>857.2215937706396</v>
+        <v>857.2215937706399</v>
       </c>
       <c r="D35" t="n">
-        <v>711.9421967142607</v>
+        <v>711.9421967142609</v>
       </c>
       <c r="E35" t="n">
-        <v>539.140245666388</v>
+        <v>539.1402456663882</v>
       </c>
       <c r="F35" t="n">
-        <v>341.140642427152</v>
+        <v>341.1406424271522</v>
       </c>
       <c r="G35" t="n">
         <v>137.4534535176441</v>
       </c>
       <c r="H35" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="I35" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="J35" t="n">
         <v>259.5621233199658</v>
@@ -6941,16 +6941,16 @@
         <v>393.7759671090325</v>
       </c>
       <c r="L35" t="n">
-        <v>597.1818701872041</v>
+        <v>811.6508014045978</v>
       </c>
       <c r="M35" t="n">
-        <v>855.1795669274418</v>
+        <v>1069.648498144835</v>
       </c>
       <c r="N35" t="n">
-        <v>1121.965744508057</v>
+        <v>1336.434675725451</v>
       </c>
       <c r="O35" t="n">
-        <v>1360.549105584656</v>
+        <v>1575.01803680205</v>
       </c>
       <c r="P35" t="n">
         <v>1744.14241480083</v>
@@ -6974,7 +6974,7 @@
         <v>1664.226188530321</v>
       </c>
       <c r="W35" t="n">
-        <v>1524.443834810578</v>
+        <v>1524.443834810579</v>
       </c>
       <c r="X35" t="n">
         <v>1363.96437809987</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>318.1891976529353</v>
+        <v>519.0843946023078</v>
       </c>
       <c r="C36" t="n">
-        <v>143.7361683718082</v>
+        <v>344.6313653211809</v>
       </c>
       <c r="D36" t="n">
-        <v>135.2346575108983</v>
+        <v>195.6969556599296</v>
       </c>
       <c r="E36" t="n">
-        <v>135.2346575108983</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="F36" t="n">
-        <v>135.2346575108983</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="G36" t="n">
-        <v>135.2346575108983</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="H36" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="I36" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="J36" t="n">
-        <v>164.53381439426</v>
+        <v>175.6445146250628</v>
       </c>
       <c r="K36" t="n">
-        <v>529.0440154476599</v>
+        <v>540.1547156784627</v>
       </c>
       <c r="L36" t="n">
-        <v>713.4454185531072</v>
+        <v>724.5561187839099</v>
       </c>
       <c r="M36" t="n">
-        <v>947.9900264971484</v>
+        <v>959.1007267279512</v>
       </c>
       <c r="N36" t="n">
-        <v>1203.150977219953</v>
+        <v>1214.261677450756</v>
       </c>
       <c r="O36" t="n">
-        <v>1414.353602194619</v>
+        <v>1425.464302425422</v>
       </c>
       <c r="P36" t="n">
-        <v>1564.529262445838</v>
+        <v>1575.639962676641</v>
       </c>
       <c r="Q36" t="n">
         <v>1822.975032723702</v>
       </c>
       <c r="R36" t="n">
-        <v>1815.625831608452</v>
+        <v>1820.425199792331</v>
       </c>
       <c r="S36" t="n">
-        <v>1815.625831608452</v>
+        <v>1820.425199792331</v>
       </c>
       <c r="T36" t="n">
-        <v>1619.530002842958</v>
+        <v>1820.425199792331</v>
       </c>
       <c r="U36" t="n">
-        <v>1391.405798603434</v>
+        <v>1592.300995552807</v>
       </c>
       <c r="V36" t="n">
-        <v>1156.253690371692</v>
+        <v>1357.148887321064</v>
       </c>
       <c r="W36" t="n">
-        <v>902.01633364349</v>
+        <v>1102.911530592863</v>
       </c>
       <c r="X36" t="n">
-        <v>694.1648334379572</v>
+        <v>895.0600303873298</v>
       </c>
       <c r="Y36" t="n">
-        <v>486.4045346730033</v>
+        <v>687.2997316223759</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>549.1668379561635</v>
+        <v>487.0916185095322</v>
       </c>
       <c r="C37" t="n">
-        <v>549.1668379561635</v>
+        <v>487.0916185095322</v>
       </c>
       <c r="D37" t="n">
-        <v>549.1668379561635</v>
+        <v>336.9749790971964</v>
       </c>
       <c r="E37" t="n">
-        <v>549.1668379561635</v>
+        <v>189.0618855148033</v>
       </c>
       <c r="F37" t="n">
-        <v>402.2768904582531</v>
+        <v>189.0618855148033</v>
       </c>
       <c r="G37" t="n">
-        <v>312.720865088639</v>
+        <v>189.0618855148033</v>
       </c>
       <c r="H37" t="n">
-        <v>160.1184802283098</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="I37" t="n">
-        <v>41.19542549794066</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="J37" t="n">
-        <v>36.45950065447403</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="K37" t="n">
-        <v>158.6686313604161</v>
+        <v>158.6686313604162</v>
       </c>
       <c r="L37" t="n">
         <v>370.5806781359117</v>
       </c>
       <c r="M37" t="n">
-        <v>604.4013422937614</v>
+        <v>604.4013422937616</v>
       </c>
       <c r="N37" t="n">
-        <v>838.0968900946719</v>
+        <v>838.0968900946721</v>
       </c>
       <c r="O37" t="n">
         <v>1037.936257694808</v>
       </c>
       <c r="P37" t="n">
-        <v>1185.4126777654</v>
+        <v>1185.412677765401</v>
       </c>
       <c r="Q37" t="n">
         <v>1204.082626561916</v>
       </c>
       <c r="R37" t="n">
-        <v>1204.082626561916</v>
+        <v>1081.960564314625</v>
       </c>
       <c r="S37" t="n">
-        <v>1204.082626561916</v>
+        <v>929.0211055649131</v>
       </c>
       <c r="T37" t="n">
-        <v>1192.233761458145</v>
+        <v>917.1722404611421</v>
       </c>
       <c r="U37" t="n">
-        <v>1116.078023139815</v>
+        <v>628.030200592441</v>
       </c>
       <c r="V37" t="n">
-        <v>861.3935349339284</v>
+        <v>586.3320139369257</v>
       </c>
       <c r="W37" t="n">
-        <v>571.9763648969679</v>
+        <v>509.9011454503366</v>
       </c>
       <c r="X37" t="n">
-        <v>556.9731155493221</v>
+        <v>494.8978961026908</v>
       </c>
       <c r="Y37" t="n">
-        <v>549.1668379561635</v>
+        <v>487.0916185095322</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1013.197809160681</v>
+        <v>1013.19780916068</v>
       </c>
       <c r="C38" t="n">
-        <v>857.221593770641</v>
+        <v>857.2215937706393</v>
       </c>
       <c r="D38" t="n">
-        <v>711.9421967142621</v>
+        <v>711.9421967142605</v>
       </c>
       <c r="E38" t="n">
-        <v>539.1402456663893</v>
+        <v>539.140245666388</v>
       </c>
       <c r="F38" t="n">
-        <v>341.1406424271534</v>
+        <v>341.140642427152</v>
       </c>
       <c r="G38" t="n">
-        <v>137.4534535176441</v>
+        <v>137.453453517644</v>
       </c>
       <c r="H38" t="n">
-        <v>36.45950065447407</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="I38" t="n">
-        <v>36.45950065447407</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="J38" t="n">
         <v>259.5621233199658</v>
@@ -7184,40 +7184,40 @@
         <v>855.1795669274418</v>
       </c>
       <c r="N38" t="n">
-        <v>1121.965744508057</v>
+        <v>1306.365887526558</v>
       </c>
       <c r="O38" t="n">
-        <v>1360.549105584656</v>
+        <v>1549.511692795928</v>
       </c>
       <c r="P38" t="n">
-        <v>1533.950574047526</v>
+        <v>1718.636070794709</v>
       </c>
       <c r="Q38" t="n">
-        <v>1822.975032723703</v>
+        <v>1797.468688717581</v>
       </c>
       <c r="R38" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="S38" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="T38" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="U38" t="n">
-        <v>1782.302774323521</v>
+        <v>1782.30277432352</v>
       </c>
       <c r="V38" t="n">
-        <v>1664.226188530322</v>
+        <v>1664.226188530321</v>
       </c>
       <c r="W38" t="n">
-        <v>1524.44383481058</v>
+        <v>1524.443834810578</v>
       </c>
       <c r="X38" t="n">
-        <v>1363.964378099872</v>
+        <v>1363.96437809987</v>
       </c>
       <c r="Y38" t="n">
-        <v>1186.811347674431</v>
+        <v>1186.81134767443</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>841.1116413639073</v>
+        <v>398.1198961340774</v>
       </c>
       <c r="C39" t="n">
-        <v>666.6586120827803</v>
+        <v>223.6668668529504</v>
       </c>
       <c r="D39" t="n">
-        <v>517.7242024215291</v>
+        <v>74.7324571916991</v>
       </c>
       <c r="E39" t="n">
-        <v>358.4867474160736</v>
+        <v>74.7324571916991</v>
       </c>
       <c r="F39" t="n">
-        <v>211.9521894429586</v>
+        <v>74.7324571916991</v>
       </c>
       <c r="G39" t="n">
-        <v>74.73245719169913</v>
+        <v>74.7324571916991</v>
       </c>
       <c r="H39" t="n">
-        <v>74.73245719169913</v>
+        <v>74.7324571916991</v>
       </c>
       <c r="I39" t="n">
-        <v>36.45950065447407</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="J39" t="n">
-        <v>71.49966890485518</v>
+        <v>175.6445146250628</v>
       </c>
       <c r="K39" t="n">
-        <v>436.0098699582551</v>
+        <v>529.0440154476609</v>
       </c>
       <c r="L39" t="n">
-        <v>620.4112730637023</v>
+        <v>713.4454185531081</v>
       </c>
       <c r="M39" t="n">
-        <v>854.9558810077435</v>
+        <v>947.9900264971493</v>
       </c>
       <c r="N39" t="n">
-        <v>1110.116831730548</v>
+        <v>1203.150977219954</v>
       </c>
       <c r="O39" t="n">
-        <v>1321.319456705214</v>
+        <v>1414.35360219462</v>
       </c>
       <c r="P39" t="n">
-        <v>1772.505777304331</v>
+        <v>1564.529262445839</v>
       </c>
       <c r="Q39" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="R39" t="n">
-        <v>1815.625831608453</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="S39" t="n">
-        <v>1815.625831608453</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="T39" t="n">
-        <v>1815.625831608453</v>
+        <v>1699.4607013241</v>
       </c>
       <c r="U39" t="n">
-        <v>1800.487928919301</v>
+        <v>1471.336497084576</v>
       </c>
       <c r="V39" t="n">
-        <v>1679.176134082664</v>
+        <v>1236.184388852834</v>
       </c>
       <c r="W39" t="n">
-        <v>1424.938777354462</v>
+        <v>981.9470321246322</v>
       </c>
       <c r="X39" t="n">
-        <v>1217.087277148929</v>
+        <v>774.0955319190994</v>
       </c>
       <c r="Y39" t="n">
-        <v>1009.326978383975</v>
+        <v>566.3352331541455</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>628.0318207748168</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="C40" t="n">
-        <v>628.0318207748168</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="D40" t="n">
-        <v>628.0318207748168</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="E40" t="n">
-        <v>628.0318207748168</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="F40" t="n">
-        <v>481.1418732769064</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="G40" t="n">
-        <v>312.7208650886391</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="H40" t="n">
-        <v>160.1184802283098</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="I40" t="n">
-        <v>41.1954254979407</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="J40" t="n">
-        <v>36.45950065447407</v>
+        <v>36.45950065447405</v>
       </c>
       <c r="K40" t="n">
         <v>158.6686313604162</v>
@@ -7354,28 +7354,28 @@
         <v>1204.082626561916</v>
       </c>
       <c r="R40" t="n">
-        <v>1081.960564314625</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="S40" t="n">
-        <v>877.7589084483179</v>
+        <v>999.880970695609</v>
       </c>
       <c r="T40" t="n">
-        <v>845.1261411760552</v>
+        <v>892.5127257068269</v>
       </c>
       <c r="U40" t="n">
-        <v>768.9704028577256</v>
+        <v>816.3569873884974</v>
       </c>
       <c r="V40" t="n">
-        <v>727.2722162022103</v>
+        <v>561.6724991826105</v>
       </c>
       <c r="W40" t="n">
-        <v>650.8413477156212</v>
+        <v>485.2416306960215</v>
       </c>
       <c r="X40" t="n">
-        <v>635.8380983679754</v>
+        <v>257.2520797980042</v>
       </c>
       <c r="Y40" t="n">
-        <v>628.0318207748168</v>
+        <v>36.45950065447405</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1013.19780916068</v>
+        <v>1013.197809160679</v>
       </c>
       <c r="C41" t="n">
-        <v>857.2215937706393</v>
+        <v>857.2215937706387</v>
       </c>
       <c r="D41" t="n">
-        <v>711.9421967142603</v>
+        <v>711.9421967142598</v>
       </c>
       <c r="E41" t="n">
-        <v>539.1402456663877</v>
+        <v>539.1402456663875</v>
       </c>
       <c r="F41" t="n">
-        <v>341.1406424271518</v>
+        <v>341.1406424271516</v>
       </c>
       <c r="G41" t="n">
-        <v>137.4534535176442</v>
+        <v>137.453453517644</v>
       </c>
       <c r="H41" t="n">
-        <v>36.45950065447407</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="I41" t="n">
-        <v>36.45950065447407</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J41" t="n">
-        <v>259.5621233199658</v>
+        <v>238.3328697779309</v>
       </c>
       <c r="K41" t="n">
-        <v>415.0562744675482</v>
+        <v>372.5467135669976</v>
       </c>
       <c r="L41" t="n">
-        <v>618.4621775457198</v>
+        <v>575.9526166451692</v>
       </c>
       <c r="M41" t="n">
-        <v>1069.648498144836</v>
+        <v>833.9503133854068</v>
       </c>
       <c r="N41" t="n">
-        <v>1336.434675725452</v>
+        <v>1100.736490966022</v>
       </c>
       <c r="O41" t="n">
-        <v>1575.018036802051</v>
+        <v>1339.319852042621</v>
       </c>
       <c r="P41" t="n">
-        <v>1744.142414800831</v>
+        <v>1508.444230041402</v>
       </c>
       <c r="Q41" t="n">
-        <v>1822.975032723703</v>
+        <v>1797.46868871758</v>
       </c>
       <c r="R41" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="S41" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="T41" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="U41" t="n">
-        <v>1782.302774323521</v>
+        <v>1782.30277432352</v>
       </c>
       <c r="V41" t="n">
-        <v>1664.226188530322</v>
+        <v>1664.226188530321</v>
       </c>
       <c r="W41" t="n">
-        <v>1524.443834810579</v>
+        <v>1524.443834810578</v>
       </c>
       <c r="X41" t="n">
-        <v>1363.96437809987</v>
+        <v>1363.964378099869</v>
       </c>
       <c r="Y41" t="n">
-        <v>1186.81134767443</v>
+        <v>1186.811347674429</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>939.8867982203318</v>
+        <v>703.8919091126479</v>
       </c>
       <c r="C42" t="n">
-        <v>765.4337689392048</v>
+        <v>529.4388798315209</v>
       </c>
       <c r="D42" t="n">
-        <v>616.4993592779535</v>
+        <v>380.5044701702697</v>
       </c>
       <c r="E42" t="n">
-        <v>457.261904272498</v>
+        <v>221.2670151648141</v>
       </c>
       <c r="F42" t="n">
-        <v>310.7273462993829</v>
+        <v>74.7324571916991</v>
       </c>
       <c r="G42" t="n">
-        <v>173.5076140481234</v>
+        <v>74.7324571916991</v>
       </c>
       <c r="H42" t="n">
-        <v>74.73245719169913</v>
+        <v>74.7324571916991</v>
       </c>
       <c r="I42" t="n">
-        <v>36.45950065447407</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J42" t="n">
-        <v>175.6445146250628</v>
+        <v>71.49966890485382</v>
       </c>
       <c r="K42" t="n">
-        <v>278.3341310360099</v>
+        <v>436.0098699582537</v>
       </c>
       <c r="L42" t="n">
-        <v>462.7355341414572</v>
+        <v>620.4112730637009</v>
       </c>
       <c r="M42" t="n">
-        <v>697.2801420854984</v>
+        <v>854.9558810077422</v>
       </c>
       <c r="N42" t="n">
-        <v>952.4410928083031</v>
+        <v>1110.116831730547</v>
       </c>
       <c r="O42" t="n">
-        <v>1163.643717782969</v>
+        <v>1321.319456705213</v>
       </c>
       <c r="P42" t="n">
-        <v>1614.830038382086</v>
+        <v>1772.505777304329</v>
       </c>
       <c r="Q42" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="R42" t="n">
-        <v>1815.625831608453</v>
+        <v>1815.625831608452</v>
       </c>
       <c r="S42" t="n">
-        <v>1815.625831608453</v>
+        <v>1815.625831608452</v>
       </c>
       <c r="T42" t="n">
-        <v>1815.625831608453</v>
+        <v>1792.246412752299</v>
       </c>
       <c r="U42" t="n">
-        <v>1800.117097620459</v>
+        <v>1777.108510063147</v>
       </c>
       <c r="V42" t="n">
-        <v>1777.951290939088</v>
+        <v>1541.956401831404</v>
       </c>
       <c r="W42" t="n">
-        <v>1523.713934210886</v>
+        <v>1287.719045103203</v>
       </c>
       <c r="X42" t="n">
-        <v>1315.862434005354</v>
+        <v>1079.86754489767</v>
       </c>
       <c r="Y42" t="n">
-        <v>1108.1021352404</v>
+        <v>872.107246132716</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>357.5295272686012</v>
+        <v>209.616433686208</v>
       </c>
       <c r="C43" t="n">
-        <v>357.5295272686012</v>
+        <v>209.616433686208</v>
       </c>
       <c r="D43" t="n">
-        <v>357.5295272686012</v>
+        <v>209.616433686208</v>
       </c>
       <c r="E43" t="n">
         <v>209.616433686208</v>
@@ -7558,61 +7558,61 @@
         <v>209.616433686208</v>
       </c>
       <c r="G43" t="n">
-        <v>41.1954254979407</v>
+        <v>41.19542549794066</v>
       </c>
       <c r="H43" t="n">
-        <v>41.1954254979407</v>
+        <v>41.19542549794066</v>
       </c>
       <c r="I43" t="n">
-        <v>41.1954254979407</v>
+        <v>41.19542549794066</v>
       </c>
       <c r="J43" t="n">
-        <v>36.45950065447407</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="K43" t="n">
-        <v>158.6686313604162</v>
+        <v>158.6686313604161</v>
       </c>
       <c r="L43" t="n">
         <v>370.5806781359117</v>
       </c>
       <c r="M43" t="n">
-        <v>604.4013422937616</v>
+        <v>604.4013422937614</v>
       </c>
       <c r="N43" t="n">
-        <v>838.0968900946721</v>
+        <v>838.0968900946719</v>
       </c>
       <c r="O43" t="n">
         <v>1037.936257694808</v>
       </c>
       <c r="P43" t="n">
-        <v>1185.412677765401</v>
+        <v>1185.4126777654</v>
       </c>
       <c r="Q43" t="n">
         <v>1204.082626561916</v>
       </c>
       <c r="R43" t="n">
-        <v>1204.082626561916</v>
+        <v>1081.960564314625</v>
       </c>
       <c r="S43" t="n">
-        <v>1012.445315874354</v>
+        <v>877.7589084483175</v>
       </c>
       <c r="T43" t="n">
-        <v>787.6101492202115</v>
+        <v>852.6833571881893</v>
       </c>
       <c r="U43" t="n">
-        <v>498.4681093515103</v>
+        <v>563.5413173194883</v>
       </c>
       <c r="V43" t="n">
-        <v>456.7699226959949</v>
+        <v>521.8431306639729</v>
       </c>
       <c r="W43" t="n">
-        <v>380.3390542094057</v>
+        <v>445.4122621773839</v>
       </c>
       <c r="X43" t="n">
-        <v>365.3358048617598</v>
+        <v>430.4090128297381</v>
       </c>
       <c r="Y43" t="n">
-        <v>357.5295272686012</v>
+        <v>209.616433686208</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>1013.197809160679</v>
       </c>
       <c r="C44" t="n">
-        <v>857.2215937706387</v>
+        <v>857.2215937706389</v>
       </c>
       <c r="D44" t="n">
-        <v>711.9421967142598</v>
+        <v>711.94219671426</v>
       </c>
       <c r="E44" t="n">
-        <v>539.1402456663872</v>
+        <v>539.1402456663875</v>
       </c>
       <c r="F44" t="n">
-        <v>341.1406424271511</v>
+        <v>341.1406424271515</v>
       </c>
       <c r="G44" t="n">
-        <v>137.4534535176442</v>
+        <v>137.453453517644</v>
       </c>
       <c r="H44" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="I44" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J44" t="n">
-        <v>157.0585777273099</v>
+        <v>238.3328697779309</v>
       </c>
       <c r="K44" t="n">
-        <v>608.2448983264262</v>
+        <v>372.5467135669976</v>
       </c>
       <c r="L44" t="n">
-        <v>811.6508014045978</v>
+        <v>575.9526166451692</v>
       </c>
       <c r="M44" t="n">
-        <v>1069.648498144835</v>
+        <v>833.9503133854068</v>
       </c>
       <c r="N44" t="n">
-        <v>1336.434675725451</v>
+        <v>1100.736490966022</v>
       </c>
       <c r="O44" t="n">
-        <v>1575.01803680205</v>
+        <v>1339.319852042621</v>
       </c>
       <c r="P44" t="n">
-        <v>1744.14241480083</v>
+        <v>1508.444230041402</v>
       </c>
       <c r="Q44" t="n">
-        <v>1822.975032723702</v>
+        <v>1797.46868871758</v>
       </c>
       <c r="R44" t="n">
         <v>1822.975032723702</v>
@@ -7679,10 +7679,10 @@
         <v>1822.975032723702</v>
       </c>
       <c r="U44" t="n">
-        <v>1782.30277432352</v>
+        <v>1782.302774323519</v>
       </c>
       <c r="V44" t="n">
-        <v>1664.226188530321</v>
+        <v>1664.22618853032</v>
       </c>
       <c r="W44" t="n">
         <v>1524.443834810578</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>249.1854864728261</v>
+        <v>644.4178305859654</v>
       </c>
       <c r="C45" t="n">
-        <v>74.7324571916991</v>
+        <v>469.9648013048383</v>
       </c>
       <c r="D45" t="n">
-        <v>74.7324571916991</v>
+        <v>469.9648013048383</v>
       </c>
       <c r="E45" t="n">
-        <v>74.7324571916991</v>
+        <v>310.7273462993828</v>
       </c>
       <c r="F45" t="n">
-        <v>74.7324571916991</v>
+        <v>310.7273462993828</v>
       </c>
       <c r="G45" t="n">
-        <v>74.7324571916991</v>
+        <v>173.5076140481233</v>
       </c>
       <c r="H45" t="n">
         <v>74.7324571916991</v>
       </c>
       <c r="I45" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J45" t="n">
         <v>175.6445146250628</v>
       </c>
       <c r="K45" t="n">
-        <v>540.1547156784627</v>
+        <v>278.3341310360099</v>
       </c>
       <c r="L45" t="n">
-        <v>724.5561187839099</v>
+        <v>462.7355341414572</v>
       </c>
       <c r="M45" t="n">
-        <v>959.1007267279512</v>
+        <v>697.2801420854984</v>
       </c>
       <c r="N45" t="n">
-        <v>1214.261677450756</v>
+        <v>952.4410928083031</v>
       </c>
       <c r="O45" t="n">
-        <v>1425.464302425422</v>
+        <v>1163.643717782969</v>
       </c>
       <c r="P45" t="n">
-        <v>1575.639962676641</v>
+        <v>1614.830038382085</v>
       </c>
       <c r="Q45" t="n">
         <v>1822.975032723702</v>
       </c>
       <c r="R45" t="n">
-        <v>1815.625831608452</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="S45" t="n">
-        <v>1670.276379859732</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="T45" t="n">
-        <v>1474.180551094239</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="U45" t="n">
-        <v>1322.402087423325</v>
+        <v>1717.634431536464</v>
       </c>
       <c r="V45" t="n">
-        <v>1087.249979191582</v>
+        <v>1482.482323304722</v>
       </c>
       <c r="W45" t="n">
-        <v>833.0126224633809</v>
+        <v>1228.24496657652</v>
       </c>
       <c r="X45" t="n">
-        <v>625.1611222578481</v>
+        <v>1020.393466370987</v>
       </c>
       <c r="Y45" t="n">
-        <v>417.4008234928941</v>
+        <v>812.6331676060333</v>
       </c>
     </row>
     <row r="46">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>770.937785190599</v>
+        <v>205.3956835823809</v>
       </c>
       <c r="C46" t="n">
-        <v>770.937785190599</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="D46" t="n">
-        <v>770.937785190599</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="E46" t="n">
-        <v>628.0318207748168</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="F46" t="n">
-        <v>481.1418732769064</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="G46" t="n">
-        <v>312.7208650886391</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="H46" t="n">
-        <v>160.1184802283098</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="I46" t="n">
-        <v>41.19542549794068</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J46" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="K46" t="n">
-        <v>158.6686313604162</v>
+        <v>158.6686313604161</v>
       </c>
       <c r="L46" t="n">
         <v>370.5806781359117</v>
       </c>
       <c r="M46" t="n">
-        <v>604.4013422937616</v>
+        <v>604.4013422937614</v>
       </c>
       <c r="N46" t="n">
-        <v>838.0968900946721</v>
+        <v>838.0968900946719</v>
       </c>
       <c r="O46" t="n">
         <v>1037.936257694808</v>
       </c>
       <c r="P46" t="n">
-        <v>1185.412677765401</v>
+        <v>1185.4126777654</v>
       </c>
       <c r="Q46" t="n">
         <v>1204.082626561916</v>
@@ -7831,25 +7831,25 @@
         <v>1204.082626561916</v>
       </c>
       <c r="S46" t="n">
-        <v>999.880970695609</v>
+        <v>1041.959937018373</v>
       </c>
       <c r="T46" t="n">
-        <v>988.0321055918379</v>
+        <v>1030.111071914602</v>
       </c>
       <c r="U46" t="n">
-        <v>911.8763672735082</v>
+        <v>953.9553335962725</v>
       </c>
       <c r="V46" t="n">
-        <v>870.1781806179928</v>
+        <v>912.2571469407571</v>
       </c>
       <c r="W46" t="n">
-        <v>793.7473121314036</v>
+        <v>835.8262784541681</v>
       </c>
       <c r="X46" t="n">
-        <v>778.7440627837577</v>
+        <v>607.8367275561508</v>
       </c>
       <c r="Y46" t="n">
-        <v>770.937785190599</v>
+        <v>387.0441484126206</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.95243602841478</v>
+        <v>39.95243602841487</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>203.678731332727</v>
+        <v>203.6787313327267</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>58.68794272922378</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>144.9907886035036</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>203.6787313327265</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>203.6787313327265</v>
+        <v>77.58769599231846</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>77.58769599231852</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>203.6787313327265</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>28.45884230992483</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.22282615449271</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>39.95243602841489</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>47.82426975137074</v>
+        <v>257.9015574872194</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>370.6412518223336</v>
+        <v>370.6412518223327</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.7097535367188</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>74.2689588700519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,16 +10112,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>283.2037238260801</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>302.8894336876148</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>133.7979045720958</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>82.98987173247343</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,16 +10349,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>65.69089085468698</v>
+        <v>283.2037238260801</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>39.95243602841489</v>
@@ -10431,16 +10431,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>51.24698489678173</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>74.26895887005196</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>216.6352840579734</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>216.6352840579725</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>114.8681058143455</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>198.8543582097867</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>186.2627707257587</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>4.60852948764699</v>
       </c>
       <c r="P38" t="n">
-        <v>4.320293398069481</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>39.95243602841489</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>20.89422148161327</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>253.2423074865161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>304.0511720685832</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>147.6529247255739</v>
       </c>
       <c r="K41" t="n">
-        <v>21.49525995809663</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>195.1400240998776</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>39.95243602841489</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>20.89422148161193</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>304.0511720685832</v>
+        <v>304.0511720685827</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2684231537829</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>65.55768022999699</v>
+        <v>147.6529247255739</v>
       </c>
       <c r="K44" t="n">
-        <v>320.1742190000502</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>39.95243602841489</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>304.0511720685827</v>
       </c>
       <c r="Q45" t="n">
-        <v>198.8543582097867</v>
+        <v>159.2684231537815</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.647527393465</v>
+        <v>251.6475273934651</v>
       </c>
       <c r="C11" t="n">
-        <v>234.1865775009919</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>132.732048825299</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.8440558022463</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>281.4204412852649</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>179.7541375993906</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.22031640604273</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>79.77012426485217</v>
+        <v>79.77012426485229</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>120.0356600810326</v>
       </c>
       <c r="V11" t="n">
-        <v>196.6659442001193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>218.1546544473975</v>
       </c>
       <c r="X11" t="n">
-        <v>238.6447864084534</v>
+        <v>238.6447864084535</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>90.43682028765298</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.647527393465</v>
+        <v>251.6475273934652</v>
       </c>
       <c r="C14" t="n">
-        <v>234.1865775009919</v>
+        <v>234.1865775009921</v>
       </c>
       <c r="D14" t="n">
-        <v>223.5967273506674</v>
+        <v>223.5967273506675</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.8440558022464</v>
       </c>
       <c r="F14" t="n">
-        <v>10.80162516050761</v>
+        <v>272.3469340370011</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>179.7541375993905</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>14.22031640604278</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>79.7701242648522</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>196.6659442001193</v>
+        <v>196.6659442001195</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.6447864084534</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23789,13 +23789,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>53.14379191401915</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>53.143791914018</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>53.14379191401837</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>53.14379191401909</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>992747.9231714327</v>
+        <v>992747.9231714325</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>992747.9231714326</v>
+        <v>992747.9231714323</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1143366.88116628</v>
+        <v>1143366.881166281</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1143366.88116628</v>
+        <v>1143366.881166281</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1173889.597336955</v>
+        <v>1173889.597336954</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307228.6270188893</v>
+        <v>307228.6270188894</v>
       </c>
       <c r="C2" t="n">
         <v>307228.6270188894</v>
       </c>
       <c r="D2" t="n">
-        <v>307228.6270188892</v>
+        <v>307228.6270188895</v>
       </c>
       <c r="E2" t="n">
-        <v>265226.423875514</v>
+        <v>265226.4238755139</v>
       </c>
       <c r="F2" t="n">
         <v>265226.423875514</v>
       </c>
       <c r="G2" t="n">
-        <v>306304.3215104729</v>
+        <v>306304.3215104727</v>
       </c>
       <c r="H2" t="n">
-        <v>306304.3215104728</v>
+        <v>306304.3215104727</v>
       </c>
       <c r="I2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="J2" t="n">
+        <v>307890.6636991064</v>
+      </c>
+      <c r="K2" t="n">
+        <v>307890.6636991064</v>
+      </c>
+      <c r="L2" t="n">
         <v>307890.6636991065</v>
-      </c>
-      <c r="K2" t="n">
-        <v>307890.6636991065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>307890.6636991067</v>
       </c>
       <c r="M2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="O2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991062</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>770624.7410272723</v>
+        <v>770624.7410272718</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85476.90224663843</v>
+        <v>85476.90224663861</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3641.530171502728</v>
+        <v>3641.530171502653</v>
       </c>
       <c r="J3" t="n">
         <v>115659.6590606171</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>85476.90224663843</v>
+        <v>85476.90224663856</v>
       </c>
       <c r="M3" t="n">
-        <v>83208.24858125586</v>
+        <v>83208.24858125579</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>457775.3608255375</v>
       </c>
       <c r="E4" t="n">
-        <v>161968.6355739664</v>
+        <v>161968.6355739663</v>
       </c>
       <c r="F4" t="n">
-        <v>161968.6355739664</v>
+        <v>161968.6355739663</v>
       </c>
       <c r="G4" t="n">
         <v>224491.0662502183</v>
@@ -26442,16 +26442,16 @@
         <v>220613.4094251413</v>
       </c>
       <c r="K4" t="n">
+        <v>220613.4094251413</v>
+      </c>
+      <c r="L4" t="n">
         <v>220613.4094251412</v>
       </c>
-      <c r="L4" t="n">
-        <v>220613.4094251413</v>
-      </c>
       <c r="M4" t="n">
+        <v>225356.8859697092</v>
+      </c>
+      <c r="N4" t="n">
         <v>225356.8859697091</v>
-      </c>
-      <c r="N4" t="n">
-        <v>225356.8859697092</v>
       </c>
       <c r="O4" t="n">
         <v>225356.8859697091</v>
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47968.47435149259</v>
+        <v>47968.47435149256</v>
       </c>
       <c r="F5" t="n">
         <v>47968.47435149255</v>
       </c>
       <c r="G5" t="n">
-        <v>56950.92147020836</v>
+        <v>56950.92147020837</v>
       </c>
       <c r="H5" t="n">
-        <v>56950.92147020836</v>
+        <v>56950.92147020837</v>
       </c>
       <c r="I5" t="n">
-        <v>57783.51849875205</v>
+        <v>57783.51849875204</v>
       </c>
       <c r="J5" t="n">
-        <v>73639.84661324271</v>
+        <v>73639.8466132427</v>
       </c>
       <c r="K5" t="n">
-        <v>73639.84661324271</v>
+        <v>73639.8466132427</v>
       </c>
       <c r="L5" t="n">
-        <v>73639.84661324271</v>
+        <v>73639.8466132427</v>
       </c>
       <c r="M5" t="n">
-        <v>60597.62160138966</v>
+        <v>60597.62160138968</v>
       </c>
       <c r="N5" t="n">
         <v>60597.62160138968</v>
       </c>
       <c r="O5" t="n">
-        <v>60597.62160138968</v>
+        <v>60597.62160138966</v>
       </c>
       <c r="P5" t="n">
         <v>60597.62160138966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184174.3338066482</v>
+        <v>-184178.7473845162</v>
       </c>
       <c r="C6" t="n">
-        <v>-184174.3338066481</v>
+        <v>-184178.7473845162</v>
       </c>
       <c r="D6" t="n">
-        <v>-184174.3338066482</v>
+        <v>-184178.7473845161</v>
       </c>
       <c r="E6" t="n">
-        <v>-715335.4270772174</v>
+        <v>-715619.8553427075</v>
       </c>
       <c r="F6" t="n">
-        <v>55289.3139500555</v>
+        <v>55004.88568456462</v>
       </c>
       <c r="G6" t="n">
-        <v>-60614.56845659213</v>
+        <v>-60625.14407118344</v>
       </c>
       <c r="H6" t="n">
-        <v>24862.33379004618</v>
+        <v>24851.75817545523</v>
       </c>
       <c r="I6" t="n">
-        <v>19777.76159813533</v>
+        <v>19777.76159813551</v>
       </c>
       <c r="J6" t="n">
         <v>-102022.2513998946</v>
       </c>
       <c r="K6" t="n">
-        <v>13637.4076607226</v>
+        <v>13637.40766072241</v>
       </c>
       <c r="L6" t="n">
-        <v>-71839.49458591569</v>
+        <v>-71839.49458591593</v>
       </c>
       <c r="M6" t="n">
-        <v>-61272.09245324839</v>
+        <v>-61272.09245324838</v>
       </c>
       <c r="N6" t="n">
-        <v>21936.15612800729</v>
+        <v>21936.15612800732</v>
       </c>
       <c r="O6" t="n">
-        <v>21936.1561280075</v>
+        <v>21936.15612800751</v>
       </c>
       <c r="P6" t="n">
-        <v>21936.15612800754</v>
+        <v>21936.15612800742</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="F2" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="G2" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="H2" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="I2" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="J2" t="n">
         <v>106.846127808298</v>
       </c>
       <c r="K2" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="L2" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="M2" t="n">
         <v>210.8564385348678</v>
@@ -26722,10 +26722,10 @@
         <v>210.8564385348678</v>
       </c>
       <c r="O2" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="P2" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>695.5005125138349</v>
+        <v>695.5005125138346</v>
       </c>
       <c r="F3" t="n">
         <v>695.5005125138345</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>358.3267734263989</v>
+        <v>358.3267734263985</v>
       </c>
       <c r="F4" t="n">
-        <v>358.3267734263983</v>
+        <v>358.3267734263985</v>
       </c>
       <c r="G4" t="n">
-        <v>358.3267734263983</v>
+        <v>358.3267734263985</v>
       </c>
       <c r="H4" t="n">
-        <v>358.3267734263983</v>
+        <v>358.3267734263985</v>
       </c>
       <c r="I4" t="n">
-        <v>372.02080350113</v>
+        <v>372.0208035011299</v>
       </c>
       <c r="J4" t="n">
-        <v>814.0705316073243</v>
+        <v>814.070531607324</v>
       </c>
       <c r="K4" t="n">
-        <v>814.0705316073243</v>
+        <v>814.070531607324</v>
       </c>
       <c r="L4" t="n">
-        <v>814.0705316073243</v>
+        <v>814.070531607324</v>
       </c>
       <c r="M4" t="n">
+        <v>455.7437581809256</v>
+      </c>
+      <c r="N4" t="n">
+        <v>455.7437581809256</v>
+      </c>
+      <c r="O4" t="n">
         <v>455.7437581809254</v>
       </c>
-      <c r="N4" t="n">
-        <v>455.7437581809259</v>
-      </c>
-      <c r="O4" t="n">
-        <v>455.7437581809259</v>
-      </c>
       <c r="P4" t="n">
-        <v>455.7437581809256</v>
+        <v>455.7437581809254</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="M2" t="n">
-        <v>104.0103107265698</v>
+        <v>104.0103107265697</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>-8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>695.5005125138349</v>
+        <v>695.5005125138346</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>358.3267734263989</v>
+        <v>358.3267734263985</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.6940300747317</v>
+        <v>13.69403007473142</v>
       </c>
       <c r="J4" t="n">
-        <v>442.0497281061942</v>
+        <v>442.0497281061941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>358.3267734263989</v>
+        <v>358.3267734263985</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="C11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="D11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="E11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="F11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="G11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="I11" t="n">
-        <v>102.6837950631109</v>
+        <v>102.683795063111</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="T11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="U11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="V11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="W11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="X11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="D12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="E12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="F12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="G12" t="n">
-        <v>76.87487497440262</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>97.78740528786</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>37.89022697185277</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.275709104097373</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>88.74190206819958</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="V12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="W12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="X12" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,28 +28245,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="C13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="D13" t="n">
-        <v>61.6678778727251</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="E13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="F13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="G13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>117.7338241830654</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28293,28 +28293,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>120.9008416248182</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>131.0863142700156</v>
+        <v>64.83489531447961</v>
       </c>
       <c r="T13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="U13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="V13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="W13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="X13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700155</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="C14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="D14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="E14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="F14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="G14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="I14" t="n">
         <v>102.683795063111</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="T14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="U14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="V14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="W14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="X14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
     </row>
     <row r="15">
@@ -28406,22 +28406,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="E15" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="F15" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>122.0408110503549</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>97.78740528786001</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>88.74190206820018</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="W15" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="X15" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
     </row>
     <row r="16">
@@ -28482,25 +28482,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="C16" t="n">
-        <v>75.02036795967571</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="E16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="F16" t="n">
-        <v>131.0863142700156</v>
+        <v>75.02036795967825</v>
       </c>
       <c r="G16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="I16" t="n">
         <v>117.7338241830654</v>
@@ -28533,25 +28533,25 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="T16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="U16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="W16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="X16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700154</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="C17" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="D17" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="E17" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="F17" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="G17" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="H17" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="I17" t="n">
         <v>102.683795063111</v>
@@ -28618,19 +28618,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U17" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="V17" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="W17" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="X17" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H18" t="n">
         <v>97.78740528786001</v>
       </c>
       <c r="I18" t="n">
-        <v>37.8902269718528</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.27570910409743</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>14.8367505197626</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1348704778385</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.8429621971285</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>95.09020309082243</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28722,25 +28722,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>67.21443286209143</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>117.7338241830654</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,22 +28767,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>120.9008416248183</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.1596393076441</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>222.5868149876011</v>
       </c>
       <c r="U19" t="n">
-        <v>237.9324420783136</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>176.2066291442499</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="C20" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="D20" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="E20" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="F20" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="G20" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="H20" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="I20" t="n">
         <v>102.683795063111</v>
@@ -28855,19 +28855,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U20" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="V20" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="W20" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="X20" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
     </row>
     <row r="21">
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>97.78740528786001</v>
       </c>
       <c r="I21" t="n">
-        <v>37.8902269718528</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.27570910409743</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T21" t="n">
-        <v>162.2656418343803</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8429621971285</v>
+        <v>219.2492565603642</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>47.42054626818758</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H22" t="n">
-        <v>13.81808437089973</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>117.7338241830654</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>120.9008416248183</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.1596393076441</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>222.5868149876011</v>
       </c>
       <c r="U22" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="V22" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="W22" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="C23" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="D23" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="E23" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="F23" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="G23" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="H23" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="I23" t="n">
         <v>102.683795063111</v>
@@ -29092,19 +29092,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U23" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="V23" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="W23" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="X23" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.8475349287469</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.27570910409743</v>
       </c>
       <c r="S24" t="n">
         <v>143.8959572312332</v>
@@ -29171,13 +29171,13 @@
         <v>194.1348704778385</v>
       </c>
       <c r="U24" t="n">
-        <v>96.86282987396467</v>
+        <v>225.8429621971285</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>8.813370966123159</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29193,25 +29193,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I25" t="n">
         <v>117.7338241830654</v>
@@ -29244,25 +29244,25 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>8.72834906047089</v>
       </c>
       <c r="T25" t="n">
-        <v>142.8857029432254</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="V25" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="W25" t="n">
-        <v>237.9324420783136</v>
+        <v>237.9324420783137</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29454,7 +29454,7 @@
         <v>106.846127808298</v>
       </c>
       <c r="J28" t="n">
-        <v>4.68856559503196</v>
+        <v>106.846127808298</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29472,10 +29472,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>69.11978840427966</v>
+        <v>73.80835399931036</v>
       </c>
       <c r="Q28" t="n">
-        <v>106.846127808298</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>106.846127808298</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="C29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="D29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="E29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="F29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="G29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="H29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="I29" t="n">
         <v>102.683795063111</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="T29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="U29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="V29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="W29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="X29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="Y29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
     </row>
     <row r="30">
@@ -29667,43 +29667,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="C31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="D31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="E31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="F31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="G31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="H31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="I31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="J31" t="n">
-        <v>106.846127808298</v>
+        <v>4.68856559503196</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>73.80835399931181</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29712,31 +29712,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>69.11978840427736</v>
       </c>
       <c r="R31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="S31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="T31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="U31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="V31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="W31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="X31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="C32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="D32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="E32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="F32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="G32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="H32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="I32" t="n">
         <v>102.683795063111</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="T32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="U32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="V32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="W32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="X32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
     </row>
     <row r="33">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="C34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="D34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="E34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="F34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="G34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="H34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="I34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="J34" t="n">
-        <v>106.846127808298</v>
+        <v>73.80835399930993</v>
       </c>
       <c r="K34" t="n">
-        <v>73.80835399931172</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="R34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="S34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="T34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="U34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="V34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="W34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="X34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082981</v>
       </c>
     </row>
     <row r="35">
@@ -30068,10 +30068,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>139.0285698123379</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -30080,7 +30080,7 @@
         <v>135.8475349287469</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>97.78740528786001</v>
       </c>
       <c r="I36" t="n">
         <v>37.8902269718528</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>4.75137450203931</v>
       </c>
       <c r="S36" t="n">
         <v>143.8959572312332</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30147,25 +30147,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>78.07633299046671</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>117.7338241830654</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.68856559503196</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,22 +30189,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>120.9008416248183</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>202.1596393076441</v>
+        <v>50.74957514542919</v>
       </c>
       <c r="T37" t="n">
         <v>210.8564385348678</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>210.8564385348678</v>
       </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="X37" t="n">
         <v>210.8564385348678</v>
@@ -30308,13 +30308,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H39" t="n">
         <v>97.78740528786001</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>7.27570910409743</v>
       </c>
       <c r="S39" t="n">
         <v>143.8959572312332</v>
       </c>
       <c r="T39" t="n">
-        <v>194.1348704778385</v>
+        <v>71.85568239223223</v>
       </c>
       <c r="U39" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>112.7019102611541</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30390,19 +30390,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>117.7338241830654</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.68856559503196</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>190.280375388061</v>
+        <v>116.2922524487069</v>
       </c>
       <c r="U40" t="n">
         <v>210.8564385348678</v>
       </c>
       <c r="V40" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>210.8564385348678</v>
       </c>
       <c r="X40" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="C41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="D41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="E41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="F41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="G41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="H41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="I41" t="n">
         <v>102.683795063111</v>
@@ -30511,22 +30511,22 @@
         <v>145.3066306760584</v>
       </c>
       <c r="T41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="U41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="V41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="W41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="X41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="Y41" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
     </row>
     <row r="42">
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>97.78740528786001</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30590,13 +30590,13 @@
         <v>143.8959572312332</v>
       </c>
       <c r="T42" t="n">
-        <v>194.1348704778385</v>
+        <v>170.9892458102476</v>
       </c>
       <c r="U42" t="n">
-        <v>210.4893155490145</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="V42" t="n">
-        <v>210.8564385348677</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30624,7 +30624,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>120.9008416248183</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>12.43870172695753</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>197.7620192400743</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="W43" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="X43" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="Y43" t="n">
-        <v>210.8564385348677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="C44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="D44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="E44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="F44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="G44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="H44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="I44" t="n">
         <v>102.683795063111</v>
@@ -30748,22 +30748,22 @@
         <v>145.3066306760584</v>
       </c>
       <c r="T44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="U44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="V44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="W44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="X44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="Y44" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
     </row>
     <row r="45">
@@ -30782,16 +30782,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>97.78740528786001</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>7.27570910409743</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U45" t="n">
-        <v>75.58228316292423</v>
+        <v>121.5557670217636</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>4.957057874944752</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>117.7338241830654</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.68856559503196</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>41.65817665953654</v>
       </c>
       <c r="T46" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="U46" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="V46" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="W46" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="X46" t="n">
-        <v>210.8564385348677</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>210.8564385348677</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.795981959854611</v>
+        <v>2.795981959854609</v>
       </c>
       <c r="H11" t="n">
-        <v>28.63435024636104</v>
+        <v>28.63435024636102</v>
       </c>
       <c r="I11" t="n">
-        <v>107.792094507295</v>
+        <v>107.7920945072949</v>
       </c>
       <c r="J11" t="n">
-        <v>237.3054738652105</v>
+        <v>237.3054738652104</v>
       </c>
       <c r="K11" t="n">
-        <v>355.6593902258562</v>
+        <v>355.659390225856</v>
       </c>
       <c r="L11" t="n">
-        <v>441.2269231297568</v>
+        <v>441.2269231297566</v>
       </c>
       <c r="M11" t="n">
-        <v>490.9499673083212</v>
+        <v>490.949967308321</v>
       </c>
       <c r="N11" t="n">
-        <v>498.8940510517582</v>
+        <v>498.894051051758</v>
       </c>
       <c r="O11" t="n">
-        <v>471.0915054384539</v>
+        <v>471.0915054384537</v>
       </c>
       <c r="P11" t="n">
-        <v>402.0657008045431</v>
+        <v>402.0657008045429</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.9345968672498</v>
+        <v>301.9345968672496</v>
       </c>
       <c r="R11" t="n">
         <v>175.6331017857173</v>
       </c>
       <c r="S11" t="n">
-        <v>63.713438910187</v>
+        <v>63.71343891018697</v>
       </c>
       <c r="T11" t="n">
         <v>12.23941102926356</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2236785567883688</v>
+        <v>0.2236785567883687</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>1.49598223446372</v>
       </c>
       <c r="H12" t="n">
-        <v>14.44803894863646</v>
+        <v>14.44803894863645</v>
       </c>
       <c r="I12" t="n">
-        <v>51.50640587956231</v>
+        <v>51.50640587956229</v>
       </c>
       <c r="J12" t="n">
         <v>141.3375145288728</v>
       </c>
       <c r="K12" t="n">
-        <v>241.5683242379421</v>
+        <v>241.568324237942</v>
       </c>
       <c r="L12" t="n">
-        <v>324.8184233207302</v>
+        <v>324.8184233207301</v>
       </c>
       <c r="M12" t="n">
-        <v>379.04777932004</v>
+        <v>379.0477793200398</v>
       </c>
       <c r="N12" t="n">
-        <v>389.0800461467726</v>
+        <v>389.0800461467724</v>
       </c>
       <c r="O12" t="n">
-        <v>355.9322292673397</v>
+        <v>355.9322292673395</v>
       </c>
       <c r="P12" t="n">
-        <v>285.6669935266731</v>
+        <v>285.666993526673</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.960819964176</v>
+        <v>190.9608199641759</v>
       </c>
       <c r="R12" t="n">
-        <v>92.88212504854576</v>
+        <v>92.88212504854572</v>
       </c>
       <c r="S12" t="n">
-        <v>27.78721387260461</v>
+        <v>27.7872138726046</v>
       </c>
       <c r="T12" t="n">
-        <v>6.029858216983151</v>
+        <v>6.029858216983149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09841988384629743</v>
+        <v>0.09841988384629739</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,19 +31914,19 @@
         <v>11.15081149571362</v>
       </c>
       <c r="I13" t="n">
-        <v>37.71665074419289</v>
+        <v>37.71665074419287</v>
       </c>
       <c r="J13" t="n">
-        <v>88.67061452164087</v>
+        <v>88.67061452164083</v>
       </c>
       <c r="K13" t="n">
         <v>145.7130581955214</v>
       </c>
       <c r="L13" t="n">
-        <v>186.4625472401845</v>
+        <v>186.4625472401844</v>
       </c>
       <c r="M13" t="n">
-        <v>196.5986120864927</v>
+        <v>196.5986120864926</v>
       </c>
       <c r="N13" t="n">
         <v>191.9239365105801</v>
@@ -31935,22 +31935,22 @@
         <v>177.272819156805</v>
       </c>
       <c r="P13" t="n">
-        <v>151.6875216144927</v>
+        <v>151.6875216144926</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.0205773895891</v>
+        <v>105.020577389589</v>
       </c>
       <c r="R13" t="n">
-        <v>56.39254975235125</v>
+        <v>56.39254975235122</v>
       </c>
       <c r="S13" t="n">
-        <v>21.85695872932821</v>
+        <v>21.8569587293282</v>
       </c>
       <c r="T13" t="n">
-        <v>5.358774440680365</v>
+        <v>5.358774440680363</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06840988647677072</v>
+        <v>0.06840988647677068</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>56.25956933852419</v>
+        <v>56.25956933852407</v>
       </c>
       <c r="K11" t="n">
-        <v>135.5695391808757</v>
+        <v>135.5695391808755</v>
       </c>
       <c r="L11" t="n">
-        <v>205.4605081597696</v>
+        <v>205.4605081597694</v>
       </c>
       <c r="M11" t="n">
-        <v>260.6037340810485</v>
+        <v>260.6037340810483</v>
       </c>
       <c r="N11" t="n">
-        <v>269.4809874551673</v>
+        <v>269.4809874551671</v>
       </c>
       <c r="O11" t="n">
-        <v>240.9932940167672</v>
+        <v>240.993294016767</v>
       </c>
       <c r="P11" t="n">
-        <v>170.8327050492736</v>
+        <v>170.8327050492734</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.62890699280032</v>
+        <v>79.62890699280015</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.49988786220615</v>
+        <v>14.49988786220607</v>
       </c>
       <c r="K12" t="n">
-        <v>103.7268852635831</v>
+        <v>103.726885263583</v>
       </c>
       <c r="L12" t="n">
-        <v>186.264043540856</v>
+        <v>186.2640435408559</v>
       </c>
       <c r="M12" t="n">
-        <v>236.9137453980217</v>
+        <v>236.9137453980215</v>
       </c>
       <c r="N12" t="n">
-        <v>257.7383340634393</v>
+        <v>257.7383340634391</v>
       </c>
       <c r="O12" t="n">
-        <v>213.3359848228952</v>
+        <v>213.3359848228951</v>
       </c>
       <c r="P12" t="n">
-        <v>151.6925861123428</v>
+        <v>151.6925861123427</v>
       </c>
       <c r="Q12" t="n">
-        <v>254.6577772108815</v>
+        <v>254.6577772108811</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>123.4435663696386</v>
+        <v>123.4435663696385</v>
       </c>
       <c r="L13" t="n">
-        <v>214.0525725005007</v>
+        <v>214.0525725005006</v>
       </c>
       <c r="M13" t="n">
-        <v>236.1824890483333</v>
+        <v>236.1824890483332</v>
       </c>
       <c r="N13" t="n">
         <v>236.0561088898087</v>
       </c>
       <c r="O13" t="n">
-        <v>201.8579470708447</v>
+        <v>201.8579470708446</v>
       </c>
       <c r="P13" t="n">
-        <v>148.9660808793862</v>
+        <v>148.9660808793861</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.85853413789468</v>
+        <v>18.85853413789464</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>103.7268852635829</v>
       </c>
       <c r="L15" t="n">
-        <v>186.2640435408558</v>
+        <v>244.9519862700796</v>
       </c>
       <c r="M15" t="n">
         <v>236.9137453980214</v>
@@ -35738,13 +35738,13 @@
         <v>257.7383340634391</v>
       </c>
       <c r="O15" t="n">
-        <v>213.3359848228949</v>
+        <v>358.3267734263985</v>
       </c>
       <c r="P15" t="n">
         <v>151.6925861123427</v>
       </c>
       <c r="Q15" t="n">
-        <v>254.6577772108808</v>
+        <v>50.97904587815432</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>269.4809874551669</v>
       </c>
       <c r="O17" t="n">
-        <v>240.9932940167668</v>
+        <v>240.9932940167673</v>
       </c>
       <c r="P17" t="n">
         <v>170.8327050492733</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.49988786220604</v>
+        <v>140.5909232026149</v>
       </c>
       <c r="K18" t="n">
         <v>103.7268852635829</v>
@@ -35981,7 +35981,7 @@
         <v>151.6925861123427</v>
       </c>
       <c r="Q18" t="n">
-        <v>254.6577772108808</v>
+        <v>128.5667418704728</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.49988786220604</v>
+        <v>140.5909232026149</v>
       </c>
       <c r="K21" t="n">
         <v>103.7268852635829</v>
@@ -36209,7 +36209,7 @@
         <v>236.9137453980214</v>
       </c>
       <c r="N21" t="n">
-        <v>257.7383340634391</v>
+        <v>335.3260300557576</v>
       </c>
       <c r="O21" t="n">
         <v>213.3359848228949</v>
@@ -36218,7 +36218,7 @@
         <v>151.6925861123427</v>
       </c>
       <c r="Q21" t="n">
-        <v>254.6577772108808</v>
+        <v>50.97904587815432</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>56.25956933852402</v>
+        <v>84.71841164844885</v>
       </c>
       <c r="K23" t="n">
         <v>135.5695391808754</v>
@@ -36376,10 +36376,10 @@
         <v>170.8327050492733</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.8517331472928</v>
+        <v>79.6289069928001</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>25.76398384456755</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>14.49988786220604</v>
       </c>
       <c r="K24" t="n">
-        <v>151.5511550149537</v>
+        <v>361.6284427508024</v>
       </c>
       <c r="L24" t="n">
         <v>186.2640435408558</v>
@@ -36455,7 +36455,7 @@
         <v>151.6925861123427</v>
       </c>
       <c r="Q24" t="n">
-        <v>261.0563336140034</v>
+        <v>50.97904587815432</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>459.7149517520402</v>
       </c>
       <c r="L26" t="n">
-        <v>576.1017599821029</v>
+        <v>576.101759982102</v>
       </c>
       <c r="M26" t="n">
         <v>260.6037340810482</v>
@@ -36677,7 +36677,7 @@
         <v>368.1921222761615</v>
       </c>
       <c r="L27" t="n">
-        <v>557.1043888443151</v>
+        <v>555.9737970775747</v>
       </c>
       <c r="M27" t="n">
         <v>236.9137453980214</v>
@@ -36686,10 +36686,10 @@
         <v>257.7383340634391</v>
       </c>
       <c r="O27" t="n">
-        <v>287.6049436929468</v>
+        <v>607.1983040996245</v>
       </c>
       <c r="P27" t="n">
-        <v>470.1553547522798</v>
+        <v>151.6925861123427</v>
       </c>
       <c r="Q27" t="n">
         <v>261.0563336140034</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>102.1575622132661</v>
       </c>
       <c r="K28" t="n">
         <v>123.4435663696385</v>
@@ -36768,10 +36768,10 @@
         <v>201.8579470708446</v>
       </c>
       <c r="P28" t="n">
-        <v>218.0858692836657</v>
+        <v>222.7744348786964</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.7046619461926</v>
+        <v>18.85853413789461</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>225.3561845105978</v>
       </c>
       <c r="K29" t="n">
-        <v>135.5695391808754</v>
+        <v>418.7732630069556</v>
       </c>
       <c r="L29" t="n">
-        <v>623.1217227102197</v>
+        <v>205.4605081597693</v>
       </c>
       <c r="M29" t="n">
         <v>260.6037340810482</v>
       </c>
       <c r="N29" t="n">
-        <v>572.3704211427818</v>
+        <v>706.8279118671511</v>
       </c>
       <c r="O29" t="n">
         <v>621.7934752795122</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.49988786220604</v>
+        <v>140.5909232026149</v>
       </c>
       <c r="K30" t="n">
-        <v>237.5247898356787</v>
+        <v>103.7268852635829</v>
       </c>
       <c r="L30" t="n">
-        <v>557.1043888443151</v>
+        <v>186.2640435408558</v>
       </c>
       <c r="M30" t="n">
         <v>702.6188091480213</v>
       </c>
       <c r="N30" t="n">
-        <v>257.7383340634391</v>
+        <v>737.0807084069926</v>
       </c>
       <c r="O30" t="n">
-        <v>607.1983040996245</v>
+        <v>213.3359848228949</v>
       </c>
       <c r="P30" t="n">
-        <v>151.6925861123427</v>
+        <v>234.6824578448161</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.97904587815432</v>
+        <v>261.0563336140034</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>102.157562213266</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>123.4435663696385</v>
       </c>
       <c r="L31" t="n">
-        <v>287.8609264998124</v>
+        <v>214.0525725005006</v>
       </c>
       <c r="M31" t="n">
         <v>236.1824890483331</v>
       </c>
       <c r="N31" t="n">
-        <v>236.0561088898086</v>
+        <v>342.9022366981068</v>
       </c>
       <c r="O31" t="n">
         <v>201.8579470708446</v>
@@ -37008,7 +37008,7 @@
         <v>148.9660808793861</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.85853413789461</v>
+        <v>87.97832254217197</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>225.3561845105978</v>
       </c>
       <c r="K32" t="n">
-        <v>201.2604300355624</v>
+        <v>418.7732630069556</v>
       </c>
       <c r="L32" t="n">
-        <v>623.1217227102197</v>
+        <v>205.4605081597693</v>
       </c>
       <c r="M32" t="n">
-        <v>710.1172675738807</v>
+        <v>260.6037340810482</v>
       </c>
       <c r="N32" t="n">
-        <v>269.4809874551669</v>
+        <v>706.8279118671511</v>
       </c>
       <c r="O32" t="n">
         <v>621.7934752795122</v>
@@ -37087,7 +37087,7 @@
         <v>492.631413220756</v>
       </c>
       <c r="Q32" t="n">
-        <v>79.6289069928001</v>
+        <v>291.9438976527048</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>368.1921222761615</v>
       </c>
       <c r="L33" t="n">
-        <v>237.5110284376375</v>
+        <v>557.1043888443151</v>
       </c>
       <c r="M33" t="n">
-        <v>236.9137453980214</v>
+        <v>311.1827042680734</v>
       </c>
       <c r="N33" t="n">
         <v>257.7383340634391</v>
       </c>
       <c r="O33" t="n">
-        <v>607.1983040996245</v>
+        <v>213.3359848228949</v>
       </c>
       <c r="P33" t="n">
         <v>470.1553547522798</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>102.157562213266</v>
+        <v>69.11978840427797</v>
       </c>
       <c r="K34" t="n">
-        <v>197.2519203689502</v>
+        <v>123.4435663696385</v>
       </c>
       <c r="L34" t="n">
         <v>214.0525725005006</v>
@@ -37245,7 +37245,7 @@
         <v>148.9660808793861</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.85853413789461</v>
+        <v>125.7046619461927</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>135.5695391808754</v>
       </c>
       <c r="L35" t="n">
-        <v>205.4605081597693</v>
+        <v>422.0957922177427</v>
       </c>
       <c r="M35" t="n">
         <v>260.6037340810482</v>
@@ -37321,7 +37321,7 @@
         <v>240.9932940167668</v>
       </c>
       <c r="P35" t="n">
-        <v>387.4679891072458</v>
+        <v>170.8327050492733</v>
       </c>
       <c r="Q35" t="n">
         <v>79.6289069928001</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>129.3679936765515</v>
+        <v>140.5909232026149</v>
       </c>
       <c r="K36" t="n">
         <v>368.1921222761615</v>
@@ -37403,7 +37403,7 @@
         <v>151.6925861123427</v>
       </c>
       <c r="Q36" t="n">
-        <v>261.0563336140034</v>
+        <v>249.8334040879411</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,19 +37552,19 @@
         <v>260.6037340810482</v>
       </c>
       <c r="N38" t="n">
-        <v>269.4809874551669</v>
+        <v>455.7437581809256</v>
       </c>
       <c r="O38" t="n">
-        <v>240.9932940167668</v>
+        <v>245.6018235044138</v>
       </c>
       <c r="P38" t="n">
-        <v>175.1529984473428</v>
+        <v>170.8327050492733</v>
       </c>
       <c r="Q38" t="n">
-        <v>291.9438976527048</v>
+        <v>79.6289069928001</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>25.76398384456755</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>35.39410934381931</v>
+        <v>140.5909232026149</v>
       </c>
       <c r="K39" t="n">
-        <v>368.1921222761615</v>
+        <v>356.969192750099</v>
       </c>
       <c r="L39" t="n">
         <v>186.2640435408558</v>
@@ -37637,10 +37637,10 @@
         <v>213.3359848228949</v>
       </c>
       <c r="P39" t="n">
-        <v>455.7437581809259</v>
+        <v>151.6925861123427</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.97904587815432</v>
+        <v>261.0563336140034</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>225.3561845105978</v>
+        <v>203.9124940640979</v>
       </c>
       <c r="K41" t="n">
-        <v>157.0647991389721</v>
+        <v>135.5695391808754</v>
       </c>
       <c r="L41" t="n">
         <v>205.4605081597693</v>
       </c>
       <c r="M41" t="n">
-        <v>455.7437581809259</v>
+        <v>260.6037340810482</v>
       </c>
       <c r="N41" t="n">
         <v>269.4809874551669</v>
@@ -37798,10 +37798,10 @@
         <v>170.8327050492733</v>
       </c>
       <c r="Q41" t="n">
-        <v>79.6289069928001</v>
+        <v>291.9438976527048</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>25.76398384456755</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>140.5909232026149</v>
+        <v>35.39410934381797</v>
       </c>
       <c r="K42" t="n">
-        <v>103.7268852635829</v>
+        <v>368.1921222761615</v>
       </c>
       <c r="L42" t="n">
         <v>186.2640435408558</v>
@@ -37874,10 +37874,10 @@
         <v>213.3359848228949</v>
       </c>
       <c r="P42" t="n">
-        <v>455.7437581809259</v>
+        <v>455.7437581809254</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.2474690319372</v>
+        <v>50.97904587815432</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.817249568521</v>
+        <v>203.9124940640979</v>
       </c>
       <c r="K44" t="n">
-        <v>455.7437581809256</v>
+        <v>135.5695391808754</v>
       </c>
       <c r="L44" t="n">
         <v>205.4605081597693</v>
@@ -38035,10 +38035,10 @@
         <v>170.8327050492733</v>
       </c>
       <c r="Q44" t="n">
-        <v>79.6289069928001</v>
+        <v>291.9438976527048</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>25.76398384456755</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>140.5909232026149</v>
       </c>
       <c r="K45" t="n">
-        <v>368.1921222761615</v>
+        <v>103.7268852635829</v>
       </c>
       <c r="L45" t="n">
         <v>186.2640435408558</v>
@@ -38111,10 +38111,10 @@
         <v>213.3359848228949</v>
       </c>
       <c r="P45" t="n">
-        <v>151.6925861123427</v>
+        <v>455.7437581809254</v>
       </c>
       <c r="Q45" t="n">
-        <v>249.8334040879411</v>
+        <v>210.2474690319358</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
